--- a/templateNew.xlsx
+++ b/templateNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AK\SIGN-IN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BD428-4414-4B75-A809-755333F7E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2ED3DFF-9C46-4897-A0F6-8F55C5F91FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="570" windowWidth="13380" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PARTICIPANT SIGN IN SHEET      签到表</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>MAY</t>
-  </si>
-  <si>
     <t>All Days</t>
   </si>
   <si>
@@ -132,28 +129,7 @@
     <t>VERY GOOD BUILDING COMPANY</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME (姓名): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEL: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENDER: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTICIPANT ADDRESS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLTC INSURANCE (保险公司): </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID #: IT</t>
-  </si>
-  <si>
-    <t>DIA CODE: M15.0</t>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -323,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,20 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,139 +672,126 @@
   <dimension ref="A1:H964"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="str">
+        <f>COUNTA(Formulas!H2:H30) &amp; " DAYS"</f>
+        <v>23 DAYS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="11">
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -859,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
@@ -881,12 +839,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" cm="1">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" cm="1">
         <f t="array" ref="A12:B35">_xlfn._xlws.FILTER(IF(Formulas!$J$2:'Formulas'!$K$31&lt;&gt;0, Formulas!$J$2:'Formulas'!$K$31, ""), (ROW(Formulas!$J$2:'Formulas'!$J$31) &lt;= MAX(_xlfn._xlws.FILTER(ROW(Formulas!$J$2:'Formulas'!$J$31), Formulas!$J$2:'Formulas'!$J$31&lt;&gt;""))))</f>
         <v>45413</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>45413</v>
       </c>
       <c r="C12" s="1"/>
@@ -896,193 +854,193 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
         <v>45414</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>45414</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
         <v>45415</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>45415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21">
         <v>45418</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>45418</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
         <v>45419</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>45419</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
         <v>45420</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>45420</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21">
         <v>45421</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>45421</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
         <v>45422</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>45422</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21">
         <v>45425</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>45425</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
         <v>45426</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>45426</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21">
         <v>45427</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>45427</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21">
         <v>45428</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <v>45428</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="21">
         <v>45429</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="16">
         <v>45429</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="21">
         <v>45432</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="16">
         <v>45432</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21">
         <v>45433</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>45433</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21">
         <v>45434</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>45434</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21">
         <v>45435</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>45435</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
         <v>45436</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>45436</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="str">
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="str">
         <v/>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="16" t="str">
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23">
         <v>45439</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>45439</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23">
         <v>45440</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>45440</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23">
         <v>45441</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="16">
         <v>45441</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="21">
         <v>45442</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="22">
         <v>45442</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23">
         <v>45443</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="16">
         <v>45443</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="15"/>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1090,9 +1048,9 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="15"/>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1100,9 +1058,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="15"/>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1110,9 +1068,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="15"/>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1120,9 +1078,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="15"/>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1130,2792 +1088,2784 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="1"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="1"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="1"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="1"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="1"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="1"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="1"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="1"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="1"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="1"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="1"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="1"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="1"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="1"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="1"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="1"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="1"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="1"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="1"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="1"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="1"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="1"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="1"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="1"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="1"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="1"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="1"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="1"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="1"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="1"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="1"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="1"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="1"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="1"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="1"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="1"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="1"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="1"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="1"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="1"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="1"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="1"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="1"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="1"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="1"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="1"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="1"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="1"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="1"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="1"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="1"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="1"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="1"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="1"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="1"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="1"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="1"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="1"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="1"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="1"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="1"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="1"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="1"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="1"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="1"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="1"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="1"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="1"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="1"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="1"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="1"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="1"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="1"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="1"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="1"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="1"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="1"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="1"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="1"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="1"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="1"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="1"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="1"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="1"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="1"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="1"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="1"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="1"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="1"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="1"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="1"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="1"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="1"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="1"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="1"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="1"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="1"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="1"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="1"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="1"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="1"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="1"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="1"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="1"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="1"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="1"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="1"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="1"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="1"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="1"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="1"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="1"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="1"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="1"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="1"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="1"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="1"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="1"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="1"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="1"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="1"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="1"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="1"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="1"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="1"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="1"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="1"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="1"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="1"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="1"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="1"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="1"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="1"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="1"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="1"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="1"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="1"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="1"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="1"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="1"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="1"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="1"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="1"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="1"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="1"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="1"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="1"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B616" s="1"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B617" s="1"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B618" s="1"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B619" s="1"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B620" s="1"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B621" s="1"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B622" s="1"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B623" s="1"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B624" s="1"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B625" s="1"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B626" s="1"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B627" s="1"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B628" s="1"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B629" s="1"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B630" s="1"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B631" s="1"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B632" s="1"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B633" s="1"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B634" s="1"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B635" s="1"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B636" s="1"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B637" s="1"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B638" s="1"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B639" s="1"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B640" s="1"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B641" s="1"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B642" s="1"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B643" s="1"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B644" s="1"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B645" s="1"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B646" s="1"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B647" s="1"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B648" s="1"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B649" s="1"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B650" s="1"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B651" s="1"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B652" s="1"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B653" s="1"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B654" s="1"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B655" s="1"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B656" s="1"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B657" s="1"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B658" s="1"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B659" s="1"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B660" s="1"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B661" s="1"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B662" s="1"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B663" s="1"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B664" s="1"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B665" s="1"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B666" s="1"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B667" s="1"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B668" s="1"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B669" s="1"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B670" s="1"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B671" s="1"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B672" s="1"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B673" s="1"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B674" s="1"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B675" s="1"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B676" s="1"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B677" s="1"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B678" s="1"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B679" s="1"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B680" s="1"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B681" s="1"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B682" s="1"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B683" s="1"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B684" s="1"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B685" s="1"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B686" s="1"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B687" s="1"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B688" s="1"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B689" s="1"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B690" s="1"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B691" s="1"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B692" s="1"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B693" s="1"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B694" s="1"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B695" s="1"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B696" s="1"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B697" s="1"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B698" s="1"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B699" s="1"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B700" s="1"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B701" s="1"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B702" s="1"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B703" s="1"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B704" s="1"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B705" s="1"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B706" s="1"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B707" s="1"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B708" s="1"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B709" s="1"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B710" s="1"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B711" s="1"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="1"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B713" s="1"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B714" s="1"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B715" s="1"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B716" s="1"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B717" s="1"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B718" s="1"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B719" s="1"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B720" s="1"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B721" s="1"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B722" s="1"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B723" s="1"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B724" s="1"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B725" s="1"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B726" s="1"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B727" s="1"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B728" s="1"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B729" s="1"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B730" s="1"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B731" s="1"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B732" s="1"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B733" s="1"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B734" s="1"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B735" s="1"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B736" s="1"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B737" s="1"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B738" s="1"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B739" s="1"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B740" s="1"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B741" s="1"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B742" s="1"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B743" s="1"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B744" s="1"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B745" s="1"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B746" s="1"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B747" s="1"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B748" s="1"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B749" s="1"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B750" s="1"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B751" s="1"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B752" s="1"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B753" s="1"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B754" s="1"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B755" s="1"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B756" s="1"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B757" s="1"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B758" s="1"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B759" s="1"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B760" s="1"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B761" s="1"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B762" s="1"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B763" s="1"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B764" s="1"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B765" s="1"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B766" s="1"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B767" s="1"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B768" s="1"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B769" s="1"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B770" s="1"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B771" s="1"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B772" s="1"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B773" s="1"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B774" s="1"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B775" s="1"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B776" s="1"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B777" s="1"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B778" s="1"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B779" s="1"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B780" s="1"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B781" s="1"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B782" s="1"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B783" s="1"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B784" s="1"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B785" s="1"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B786" s="1"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B787" s="1"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B788" s="1"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B789" s="1"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B790" s="1"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B791" s="1"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B792" s="1"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B793" s="1"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B794" s="1"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B795" s="1"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B796" s="1"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B797" s="1"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B798" s="1"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B799" s="1"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B800" s="1"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B801" s="1"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B802" s="1"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B803" s="1"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B804" s="1"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B805" s="1"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B806" s="1"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B807" s="1"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B808" s="1"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B809" s="1"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B810" s="1"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B811" s="1"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B812" s="1"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B813" s="1"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B814" s="1"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B815" s="1"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B816" s="1"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B817" s="1"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B818" s="1"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B819" s="1"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B820" s="1"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B821" s="1"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B822" s="1"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B823" s="1"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B824" s="1"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B825" s="1"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B826" s="1"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B827" s="1"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B828" s="1"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B829" s="1"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B830" s="1"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B831" s="1"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B832" s="1"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B833" s="1"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B834" s="1"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B835" s="1"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B836" s="1"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B837" s="1"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B838" s="1"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B839" s="1"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B840" s="1"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B841" s="1"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B842" s="1"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B843" s="1"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B844" s="1"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B845" s="1"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B846" s="1"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B847" s="1"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B848" s="1"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B849" s="1"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B850" s="1"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B851" s="1"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B852" s="1"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B853" s="1"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B854" s="1"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B855" s="1"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B856" s="1"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B857" s="1"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B858" s="1"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B859" s="1"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B860" s="1"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B861" s="1"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B862" s="1"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B863" s="1"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B864" s="1"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B865" s="1"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B866" s="1"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B867" s="1"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B868" s="1"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B869" s="1"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B870" s="1"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B871" s="1"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B872" s="1"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B873" s="1"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B874" s="1"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B875" s="1"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B876" s="1"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B877" s="1"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B878" s="1"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B879" s="1"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B880" s="1"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B881" s="1"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B882" s="1"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B883" s="1"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B884" s="1"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B885" s="1"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B886" s="1"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="1"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B888" s="1"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B889" s="1"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B890" s="1"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B891" s="1"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B892" s="1"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B893" s="1"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B894" s="1"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B895" s="1"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B896" s="1"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B897" s="1"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B898" s="1"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B899" s="1"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B900" s="1"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B901" s="1"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B902" s="1"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B903" s="1"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B904" s="1"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B905" s="1"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B906" s="1"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B907" s="1"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B908" s="1"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B909" s="1"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B910" s="1"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B911" s="1"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B912" s="1"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B913" s="1"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B914" s="1"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B915" s="1"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B916" s="1"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B917" s="1"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B918" s="1"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B919" s="1"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B920" s="1"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B921" s="1"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B922" s="1"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B923" s="1"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B924" s="1"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B925" s="1"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B926" s="1"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B927" s="1"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B928" s="1"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B929" s="1"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B930" s="1"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B931" s="1"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B932" s="1"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B933" s="1"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B934" s="1"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B935" s="1"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B936" s="1"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B937" s="1"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B938" s="1"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B939" s="1"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B940" s="1"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B941" s="1"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B942" s="1"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B943" s="1"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B944" s="1"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B945" s="1"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B946" s="1"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B947" s="1"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B948" s="1"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B949" s="1"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B950" s="1"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B951" s="1"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B952" s="1"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B953" s="1"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B954" s="1"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B955" s="1"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B956" s="1"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B957" s="1"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B958" s="1"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B959" s="1"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B960" s="1"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B961" s="1"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B962" s="1"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B963" s="1"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B964" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="expression" dxfId="2" priority="88">
@@ -3955,76 +3905,76 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="13" customWidth="1"/>
-    <col min="12" max="15" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="14" customWidth="1"/>
+    <col min="12" max="15" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33">
+    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="36">
         <f>DATEVALUE('999'!$F$8 &amp; " 1, " &amp; '999'!$H$8)</f>
         <v>45413</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="H1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="str" cm="1">
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="str" cm="1">
         <f t="array" ref="B2:B6">_xlfn.TEXTSPLIT(TRIM('999'!$C$8), ," ")</f>
         <v>MON</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <f t="shared" ref="C2:C7" si="0">IF($B2="MON", 1, IF($B2="TUE", 2, IF($B2="WED", 3, IF($B2="THU", 4, IF($B2="FRI", 5, IF($B2="SAT", 6, "-1"))))))</f>
         <v>1</v>
       </c>
-      <c r="E2" s="24" cm="1">
+      <c r="E2" s="25" cm="1">
         <f t="array" ref="E2:E32">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
         <v>45413</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <f>IF($E2="","",WEEKDAY($E2)-1)</f>
         <v>3</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="24" cm="1">
+      <c r="H2" s="25" cm="1">
         <f t="array" ref="H2:H24">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
         <v>45413</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="18" cm="1">
+      <c r="J2" s="19" cm="1">
         <f t="array" ref="J2:J19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
         <v>45413</v>
       </c>
-      <c r="K2" s="12" cm="1">
+      <c r="K2" s="13" cm="1">
         <f t="array" ref="K2:K19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
         <v>45413</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="str">
+    <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="str">
         <v>TUE</v>
       </c>
       <c r="C3" s="5">
@@ -4043,15 +3993,15 @@
         <v>45414</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="18">
+      <c r="J3" s="19">
         <v>45414</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="13">
         <v>45414</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="str">
+    <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="str">
         <v>WED</v>
       </c>
       <c r="C4" s="5">
@@ -4070,15 +4020,15 @@
         <v>45415</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>45415</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="13">
         <v>45415</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="str">
+    <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="str">
         <v>THU</v>
       </c>
       <c r="C5" s="5">
@@ -4097,15 +4047,15 @@
         <v>45418</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <v>45418</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="13">
         <v>45418</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="str">
+    <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="str">
         <v>FRI</v>
       </c>
       <c r="C6" s="5">
@@ -4124,15 +4074,15 @@
         <v>45419</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <v>45419</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>45419</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+    <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>-1</v>
@@ -4149,19 +4099,19 @@
         <v>45420</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <v>45420</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>45420</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="b">
+    <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="39" t="b">
         <f>COUNTIFS(B2:B7,"&lt;&gt;MON",B2:B7,"&lt;&gt;TUE",B2:B7,"&lt;&gt;WED",B2:B7,"&lt;&gt;THU",B2:B7,"&lt;&gt;FRI", B2:B7,"&lt;&gt;SAT",  B2:B7, "&lt;&gt;")&gt;0</f>
         <v>0</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="39"/>
       <c r="E8" s="4">
         <v>45419</v>
       </c>
@@ -4174,16 +4124,16 @@
         <v>45421</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="18">
+      <c r="J8" s="19">
         <v>45421</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <v>45421</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="E9" s="4">
         <v>45420</v>
       </c>
@@ -4196,14 +4146,14 @@
         <v>45422</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="18">
+      <c r="J9" s="19">
         <v>45422</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>45422</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
         <v>45421</v>
       </c>
@@ -4216,14 +4166,14 @@
         <v>45425</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="18">
+      <c r="J10" s="19">
         <v>45425</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>45425</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
         <v>45422</v>
       </c>
@@ -4236,14 +4186,14 @@
         <v>45426</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="18">
+      <c r="J11" s="19">
         <v>45426</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="13">
         <v>45426</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
         <v>45423</v>
       </c>
@@ -4256,14 +4206,14 @@
         <v>45427</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="18">
+      <c r="J12" s="19">
         <v>45427</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="13">
         <v>45427</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
         <v>45424</v>
       </c>
@@ -4276,14 +4226,14 @@
         <v>45428</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="18">
+      <c r="J13" s="19">
         <v>45428</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="13">
         <v>45428</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
         <v>45425</v>
       </c>
@@ -4296,14 +4246,14 @@
         <v>45429</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="18">
+      <c r="J14" s="19">
         <v>45429</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>45429</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
         <v>45426</v>
       </c>
@@ -4316,14 +4266,14 @@
         <v>45432</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="18">
+      <c r="J15" s="19">
         <v>45432</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="13">
         <v>45432</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
         <v>45427</v>
       </c>
@@ -4336,14 +4286,14 @@
         <v>45433</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="18">
+      <c r="J16" s="19">
         <v>45433</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="13">
         <v>45433</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
         <v>45428</v>
       </c>
@@ -4356,14 +4306,14 @@
         <v>45434</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="18">
+      <c r="J17" s="19">
         <v>45434</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="13">
         <v>45434</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
         <v>45429</v>
       </c>
@@ -4376,14 +4326,14 @@
         <v>45435</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="18">
+      <c r="J18" s="19">
         <v>45435</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="13">
         <v>45435</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
         <v>45430</v>
       </c>
@@ -4396,14 +4346,14 @@
         <v>45436</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="18">
+      <c r="J19" s="19">
         <v>45436</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <v>45436</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
         <v>45431</v>
       </c>
@@ -4416,10 +4366,10 @@
         <v>45439</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4">
         <v>45432</v>
       </c>
@@ -4432,16 +4382,16 @@
         <v>45440</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="18" cm="1">
+      <c r="J21" s="19" cm="1">
         <f t="array" ref="J21:J25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=21)*($H$2:$H$32&lt;&gt;""))))</f>
         <v>45439</v>
       </c>
-      <c r="K21" s="12" cm="1">
+      <c r="K21" s="13" cm="1">
         <f t="array" ref="K21:K25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=20)*($H$2:$H$32&lt;&gt;""))))</f>
         <v>45439</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="4">
         <v>45433</v>
       </c>
@@ -4454,14 +4404,14 @@
         <v>45441</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="18">
+      <c r="J22" s="19">
         <v>45440</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>45440</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="4">
         <v>45434</v>
       </c>
@@ -4474,14 +4424,14 @@
         <v>45442</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="18">
+      <c r="J23" s="19">
         <v>45441</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <v>45441</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="4">
         <v>45435</v>
       </c>
@@ -4494,14 +4444,14 @@
         <v>45443</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="18">
+      <c r="J24" s="19">
         <v>45442</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>45442</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="4">
         <v>45436</v>
       </c>
@@ -4512,14 +4462,14 @@
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="18">
+      <c r="J25" s="19">
         <v>45443</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <v>45443</v>
       </c>
     </row>
-    <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="4">
         <v>45437</v>
       </c>
@@ -4530,10 +4480,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="19"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="4">
         <v>45438</v>
       </c>
@@ -4544,10 +4494,10 @@
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="4">
         <v>45439</v>
       </c>
@@ -4558,10 +4508,10 @@
       <c r="G28" s="6"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="4">
         <v>45440</v>
       </c>
@@ -4572,10 +4522,10 @@
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="4">
         <v>45441</v>
       </c>
@@ -4586,10 +4536,10 @@
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="19"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="4">
         <v>45442</v>
       </c>
@@ -4600,10 +4550,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="19"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E32" s="4">
         <v>45443</v>
       </c>
@@ -4614,2911 +4564,2911 @@
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E296" s="7"/>
     </row>
-    <row r="297" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E297" s="7"/>
     </row>
-    <row r="298" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E298" s="7"/>
     </row>
-    <row r="299" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E299" s="7"/>
     </row>
-    <row r="300" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E300" s="7"/>
     </row>
-    <row r="301" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E301" s="7"/>
     </row>
-    <row r="302" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E302" s="7"/>
     </row>
-    <row r="303" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E303" s="7"/>
     </row>
-    <row r="304" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E304" s="7"/>
     </row>
-    <row r="305" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E305" s="7"/>
     </row>
-    <row r="306" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E306" s="7"/>
     </row>
-    <row r="307" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E307" s="7"/>
     </row>
-    <row r="308" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E308" s="7"/>
     </row>
-    <row r="309" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E309" s="7"/>
     </row>
-    <row r="310" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E310" s="7"/>
     </row>
-    <row r="311" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E311" s="7"/>
     </row>
-    <row r="312" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E312" s="7"/>
     </row>
-    <row r="313" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E313" s="7"/>
     </row>
-    <row r="314" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E314" s="7"/>
     </row>
-    <row r="315" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E315" s="7"/>
     </row>
-    <row r="316" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E316" s="7"/>
     </row>
-    <row r="317" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E317" s="7"/>
     </row>
-    <row r="318" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E318" s="7"/>
     </row>
-    <row r="319" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E319" s="7"/>
     </row>
-    <row r="320" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E320" s="7"/>
     </row>
-    <row r="321" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E321" s="7"/>
     </row>
-    <row r="322" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E322" s="7"/>
     </row>
-    <row r="323" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E323" s="7"/>
     </row>
-    <row r="324" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E324" s="7"/>
     </row>
-    <row r="325" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E325" s="7"/>
     </row>
-    <row r="326" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E326" s="7"/>
     </row>
-    <row r="327" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E327" s="7"/>
     </row>
-    <row r="328" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E328" s="7"/>
     </row>
-    <row r="329" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E329" s="7"/>
     </row>
-    <row r="330" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E330" s="7"/>
     </row>
-    <row r="331" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E331" s="7"/>
     </row>
-    <row r="332" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E332" s="7"/>
     </row>
-    <row r="333" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E333" s="7"/>
     </row>
-    <row r="334" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E334" s="7"/>
     </row>
-    <row r="335" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E335" s="7"/>
     </row>
-    <row r="336" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E336" s="7"/>
     </row>
-    <row r="337" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E337" s="7"/>
     </row>
-    <row r="338" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E338" s="7"/>
     </row>
-    <row r="339" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E339" s="7"/>
     </row>
-    <row r="340" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E340" s="7"/>
     </row>
-    <row r="341" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E341" s="7"/>
     </row>
-    <row r="342" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E342" s="7"/>
     </row>
-    <row r="343" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E343" s="7"/>
     </row>
-    <row r="344" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E344" s="7"/>
     </row>
-    <row r="345" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E345" s="7"/>
     </row>
-    <row r="346" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E346" s="7"/>
     </row>
-    <row r="347" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E347" s="7"/>
     </row>
-    <row r="348" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E348" s="7"/>
     </row>
-    <row r="349" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E349" s="7"/>
     </row>
-    <row r="350" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E350" s="7"/>
     </row>
-    <row r="351" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E351" s="7"/>
     </row>
-    <row r="352" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E352" s="7"/>
     </row>
-    <row r="353" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E353" s="7"/>
     </row>
-    <row r="354" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E354" s="7"/>
     </row>
-    <row r="355" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E355" s="7"/>
     </row>
-    <row r="356" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E356" s="7"/>
     </row>
-    <row r="357" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E357" s="7"/>
     </row>
-    <row r="358" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E358" s="7"/>
     </row>
-    <row r="359" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E359" s="7"/>
     </row>
-    <row r="360" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E360" s="7"/>
     </row>
-    <row r="361" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E361" s="7"/>
     </row>
-    <row r="362" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E362" s="7"/>
     </row>
-    <row r="363" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E363" s="7"/>
     </row>
-    <row r="364" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E364" s="7"/>
     </row>
-    <row r="365" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E365" s="7"/>
     </row>
-    <row r="366" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E366" s="7"/>
     </row>
-    <row r="367" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E367" s="7"/>
     </row>
-    <row r="368" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E368" s="7"/>
     </row>
-    <row r="369" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E369" s="7"/>
     </row>
-    <row r="370" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E370" s="7"/>
     </row>
-    <row r="371" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E371" s="7"/>
     </row>
-    <row r="372" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E372" s="7"/>
     </row>
-    <row r="373" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E373" s="7"/>
     </row>
-    <row r="374" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E374" s="7"/>
     </row>
-    <row r="375" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E375" s="7"/>
     </row>
-    <row r="376" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E376" s="7"/>
     </row>
-    <row r="377" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E377" s="7"/>
     </row>
-    <row r="378" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E378" s="7"/>
     </row>
-    <row r="379" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E379" s="7"/>
     </row>
-    <row r="380" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E380" s="7"/>
     </row>
-    <row r="381" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E381" s="7"/>
     </row>
-    <row r="382" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E382" s="7"/>
     </row>
-    <row r="383" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E383" s="7"/>
     </row>
-    <row r="384" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E384" s="7"/>
     </row>
-    <row r="385" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E385" s="7"/>
     </row>
-    <row r="386" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E386" s="7"/>
     </row>
-    <row r="387" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E387" s="7"/>
     </row>
-    <row r="388" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E388" s="7"/>
     </row>
-    <row r="389" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E389" s="7"/>
     </row>
-    <row r="390" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E390" s="7"/>
     </row>
-    <row r="391" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E391" s="7"/>
     </row>
-    <row r="392" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E392" s="7"/>
     </row>
-    <row r="393" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E393" s="7"/>
     </row>
-    <row r="394" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E394" s="7"/>
     </row>
-    <row r="395" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E395" s="7"/>
     </row>
-    <row r="396" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E396" s="7"/>
     </row>
-    <row r="397" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E397" s="7"/>
     </row>
-    <row r="398" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E398" s="7"/>
     </row>
-    <row r="399" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E399" s="7"/>
     </row>
-    <row r="400" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E400" s="7"/>
     </row>
-    <row r="401" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E401" s="7"/>
     </row>
-    <row r="402" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E402" s="7"/>
     </row>
-    <row r="403" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E403" s="7"/>
     </row>
-    <row r="404" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E404" s="7"/>
     </row>
-    <row r="405" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E405" s="7"/>
     </row>
-    <row r="406" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E406" s="7"/>
     </row>
-    <row r="407" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E407" s="7"/>
     </row>
-    <row r="408" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E408" s="7"/>
     </row>
-    <row r="409" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E409" s="7"/>
     </row>
-    <row r="410" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E410" s="7"/>
     </row>
-    <row r="411" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E411" s="7"/>
     </row>
-    <row r="412" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E412" s="7"/>
     </row>
-    <row r="413" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E413" s="7"/>
     </row>
-    <row r="414" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E414" s="7"/>
     </row>
-    <row r="415" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E415" s="7"/>
     </row>
-    <row r="416" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E416" s="7"/>
     </row>
-    <row r="417" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E417" s="7"/>
     </row>
-    <row r="418" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E418" s="7"/>
     </row>
-    <row r="419" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E419" s="7"/>
     </row>
-    <row r="420" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E420" s="7"/>
     </row>
-    <row r="421" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E421" s="7"/>
     </row>
-    <row r="422" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E422" s="7"/>
     </row>
-    <row r="423" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E423" s="7"/>
     </row>
-    <row r="424" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E424" s="7"/>
     </row>
-    <row r="425" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E425" s="7"/>
     </row>
-    <row r="426" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E426" s="7"/>
     </row>
-    <row r="427" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E427" s="7"/>
     </row>
-    <row r="428" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E428" s="7"/>
     </row>
-    <row r="429" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E429" s="7"/>
     </row>
-    <row r="430" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E430" s="7"/>
     </row>
-    <row r="431" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E431" s="7"/>
     </row>
-    <row r="432" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E432" s="7"/>
     </row>
-    <row r="433" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E433" s="7"/>
     </row>
-    <row r="434" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E434" s="7"/>
     </row>
-    <row r="435" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E435" s="7"/>
     </row>
-    <row r="436" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E436" s="7"/>
     </row>
-    <row r="437" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E437" s="7"/>
     </row>
-    <row r="438" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E438" s="7"/>
     </row>
-    <row r="439" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E439" s="7"/>
     </row>
-    <row r="440" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E440" s="7"/>
     </row>
-    <row r="441" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E441" s="7"/>
     </row>
-    <row r="442" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E442" s="7"/>
     </row>
-    <row r="443" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E443" s="7"/>
     </row>
-    <row r="444" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E444" s="7"/>
     </row>
-    <row r="445" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E445" s="7"/>
     </row>
-    <row r="446" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E446" s="7"/>
     </row>
-    <row r="447" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E447" s="7"/>
     </row>
-    <row r="448" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E448" s="7"/>
     </row>
-    <row r="449" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E449" s="7"/>
     </row>
-    <row r="450" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E450" s="7"/>
     </row>
-    <row r="451" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E451" s="7"/>
     </row>
-    <row r="452" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E452" s="7"/>
     </row>
-    <row r="453" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E453" s="7"/>
     </row>
-    <row r="454" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E454" s="7"/>
     </row>
-    <row r="455" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E455" s="7"/>
     </row>
-    <row r="456" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E456" s="7"/>
     </row>
-    <row r="457" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E457" s="7"/>
     </row>
-    <row r="458" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E458" s="7"/>
     </row>
-    <row r="459" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E459" s="7"/>
     </row>
-    <row r="460" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E460" s="7"/>
     </row>
-    <row r="461" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E461" s="7"/>
     </row>
-    <row r="462" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E462" s="7"/>
     </row>
-    <row r="463" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E463" s="7"/>
     </row>
-    <row r="464" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E464" s="7"/>
     </row>
-    <row r="465" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E465" s="7"/>
     </row>
-    <row r="466" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E466" s="7"/>
     </row>
-    <row r="467" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E467" s="7"/>
     </row>
-    <row r="468" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E468" s="7"/>
     </row>
-    <row r="469" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E469" s="7"/>
     </row>
-    <row r="470" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E470" s="7"/>
     </row>
-    <row r="471" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E471" s="7"/>
     </row>
-    <row r="472" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E472" s="7"/>
     </row>
-    <row r="473" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E473" s="7"/>
     </row>
-    <row r="474" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E474" s="7"/>
     </row>
-    <row r="475" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E475" s="7"/>
     </row>
-    <row r="476" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E476" s="7"/>
     </row>
-    <row r="477" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E477" s="7"/>
     </row>
-    <row r="478" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E478" s="7"/>
     </row>
-    <row r="479" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E479" s="7"/>
     </row>
-    <row r="480" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E480" s="7"/>
     </row>
-    <row r="481" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E481" s="7"/>
     </row>
-    <row r="482" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E482" s="7"/>
     </row>
-    <row r="483" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E483" s="7"/>
     </row>
-    <row r="484" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E484" s="7"/>
     </row>
-    <row r="485" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E485" s="7"/>
     </row>
-    <row r="486" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E486" s="7"/>
     </row>
-    <row r="487" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E487" s="7"/>
     </row>
-    <row r="488" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E488" s="7"/>
     </row>
-    <row r="489" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E489" s="7"/>
     </row>
-    <row r="490" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E490" s="7"/>
     </row>
-    <row r="491" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E491" s="7"/>
     </row>
-    <row r="492" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E492" s="7"/>
     </row>
-    <row r="493" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E493" s="7"/>
     </row>
-    <row r="494" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E494" s="7"/>
     </row>
-    <row r="495" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E495" s="7"/>
     </row>
-    <row r="496" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E496" s="7"/>
     </row>
-    <row r="497" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E497" s="7"/>
     </row>
-    <row r="498" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E498" s="7"/>
     </row>
-    <row r="499" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E499" s="7"/>
     </row>
-    <row r="500" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E500" s="7"/>
     </row>
-    <row r="501" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E501" s="7"/>
     </row>
-    <row r="502" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E502" s="7"/>
     </row>
-    <row r="503" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E503" s="7"/>
     </row>
-    <row r="504" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E504" s="7"/>
     </row>
-    <row r="505" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E505" s="7"/>
     </row>
-    <row r="506" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E506" s="7"/>
     </row>
-    <row r="507" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E507" s="7"/>
     </row>
-    <row r="508" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E508" s="7"/>
     </row>
-    <row r="509" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E509" s="7"/>
     </row>
-    <row r="510" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E510" s="7"/>
     </row>
-    <row r="511" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E511" s="7"/>
     </row>
-    <row r="512" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E512" s="7"/>
     </row>
-    <row r="513" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E513" s="7"/>
     </row>
-    <row r="514" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E514" s="7"/>
     </row>
-    <row r="515" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E515" s="7"/>
     </row>
-    <row r="516" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E516" s="7"/>
     </row>
-    <row r="517" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E517" s="7"/>
     </row>
-    <row r="518" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E518" s="7"/>
     </row>
-    <row r="519" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E519" s="7"/>
     </row>
-    <row r="520" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E520" s="7"/>
     </row>
-    <row r="521" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E521" s="7"/>
     </row>
-    <row r="522" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E522" s="7"/>
     </row>
-    <row r="523" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E523" s="7"/>
     </row>
-    <row r="524" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E524" s="7"/>
     </row>
-    <row r="525" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E525" s="7"/>
     </row>
-    <row r="526" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E526" s="7"/>
     </row>
-    <row r="527" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E527" s="7"/>
     </row>
-    <row r="528" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E528" s="7"/>
     </row>
-    <row r="529" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E529" s="7"/>
     </row>
-    <row r="530" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E530" s="7"/>
     </row>
-    <row r="531" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E531" s="7"/>
     </row>
-    <row r="532" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E532" s="7"/>
     </row>
-    <row r="533" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E533" s="7"/>
     </row>
-    <row r="534" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E534" s="7"/>
     </row>
-    <row r="535" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E535" s="7"/>
     </row>
-    <row r="536" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E536" s="7"/>
     </row>
-    <row r="537" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E537" s="7"/>
     </row>
-    <row r="538" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E538" s="7"/>
     </row>
-    <row r="539" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E539" s="7"/>
     </row>
-    <row r="540" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E540" s="7"/>
     </row>
-    <row r="541" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E541" s="7"/>
     </row>
-    <row r="542" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E542" s="7"/>
     </row>
-    <row r="543" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E543" s="7"/>
     </row>
-    <row r="544" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E544" s="7"/>
     </row>
-    <row r="545" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E545" s="7"/>
     </row>
-    <row r="546" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E546" s="7"/>
     </row>
-    <row r="547" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E547" s="7"/>
     </row>
-    <row r="548" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E548" s="7"/>
     </row>
-    <row r="549" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E549" s="7"/>
     </row>
-    <row r="550" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E550" s="7"/>
     </row>
-    <row r="551" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E551" s="7"/>
     </row>
-    <row r="552" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E552" s="7"/>
     </row>
-    <row r="553" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E553" s="7"/>
     </row>
-    <row r="554" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E554" s="7"/>
     </row>
-    <row r="555" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E555" s="7"/>
     </row>
-    <row r="556" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E556" s="7"/>
     </row>
-    <row r="557" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E557" s="7"/>
     </row>
-    <row r="558" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E558" s="7"/>
     </row>
-    <row r="559" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E559" s="7"/>
     </row>
-    <row r="560" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E560" s="7"/>
     </row>
-    <row r="561" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E561" s="7"/>
     </row>
-    <row r="562" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E562" s="7"/>
     </row>
-    <row r="563" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E563" s="7"/>
     </row>
-    <row r="564" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E564" s="7"/>
     </row>
-    <row r="565" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E565" s="7"/>
     </row>
-    <row r="566" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E566" s="7"/>
     </row>
-    <row r="567" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E567" s="7"/>
     </row>
-    <row r="568" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E568" s="7"/>
     </row>
-    <row r="569" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E569" s="7"/>
     </row>
-    <row r="570" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E570" s="7"/>
     </row>
-    <row r="571" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E571" s="7"/>
     </row>
-    <row r="572" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E572" s="7"/>
     </row>
-    <row r="573" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E573" s="7"/>
     </row>
-    <row r="574" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E574" s="7"/>
     </row>
-    <row r="575" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E575" s="7"/>
     </row>
-    <row r="576" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E576" s="7"/>
     </row>
-    <row r="577" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E577" s="7"/>
     </row>
-    <row r="578" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E578" s="7"/>
     </row>
-    <row r="579" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E579" s="7"/>
     </row>
-    <row r="580" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E580" s="7"/>
     </row>
-    <row r="581" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E581" s="7"/>
     </row>
-    <row r="582" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E582" s="7"/>
     </row>
-    <row r="583" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E583" s="7"/>
     </row>
-    <row r="584" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E584" s="7"/>
     </row>
-    <row r="585" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E585" s="7"/>
     </row>
-    <row r="586" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E586" s="7"/>
     </row>
-    <row r="587" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E587" s="7"/>
     </row>
-    <row r="588" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E588" s="7"/>
     </row>
-    <row r="589" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E589" s="7"/>
     </row>
-    <row r="590" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E590" s="7"/>
     </row>
-    <row r="591" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E591" s="7"/>
     </row>
-    <row r="592" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E592" s="7"/>
     </row>
-    <row r="593" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E593" s="7"/>
     </row>
-    <row r="594" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E594" s="7"/>
     </row>
-    <row r="595" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E595" s="7"/>
     </row>
-    <row r="596" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E596" s="7"/>
     </row>
-    <row r="597" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E597" s="7"/>
     </row>
-    <row r="598" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E598" s="7"/>
     </row>
-    <row r="599" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E599" s="7"/>
     </row>
-    <row r="600" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E600" s="7"/>
     </row>
-    <row r="601" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E601" s="7"/>
     </row>
-    <row r="602" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E602" s="7"/>
     </row>
-    <row r="603" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E603" s="7"/>
     </row>
-    <row r="604" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E604" s="7"/>
     </row>
-    <row r="605" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E605" s="7"/>
     </row>
-    <row r="606" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E606" s="7"/>
     </row>
-    <row r="607" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E607" s="7"/>
     </row>
-    <row r="608" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E608" s="7"/>
     </row>
-    <row r="609" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E609" s="7"/>
     </row>
-    <row r="610" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E610" s="7"/>
     </row>
-    <row r="611" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E611" s="7"/>
     </row>
-    <row r="612" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E612" s="7"/>
     </row>
-    <row r="613" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E613" s="7"/>
     </row>
-    <row r="614" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E614" s="7"/>
     </row>
-    <row r="615" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E615" s="7"/>
     </row>
-    <row r="616" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E616" s="7"/>
     </row>
-    <row r="617" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E617" s="7"/>
     </row>
-    <row r="618" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E618" s="7"/>
     </row>
-    <row r="619" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E619" s="7"/>
     </row>
-    <row r="620" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E620" s="7"/>
     </row>
-    <row r="621" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E621" s="7"/>
     </row>
-    <row r="622" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E622" s="7"/>
     </row>
-    <row r="623" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E623" s="7"/>
     </row>
-    <row r="624" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E624" s="7"/>
     </row>
-    <row r="625" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E625" s="7"/>
     </row>
-    <row r="626" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E626" s="7"/>
     </row>
-    <row r="627" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E627" s="7"/>
     </row>
-    <row r="628" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E628" s="7"/>
     </row>
-    <row r="629" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E629" s="7"/>
     </row>
-    <row r="630" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E630" s="7"/>
     </row>
-    <row r="631" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E631" s="7"/>
     </row>
-    <row r="632" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E632" s="7"/>
     </row>
-    <row r="633" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E633" s="7"/>
     </row>
-    <row r="634" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E634" s="7"/>
     </row>
-    <row r="635" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E635" s="7"/>
     </row>
-    <row r="636" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E636" s="7"/>
     </row>
-    <row r="637" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E637" s="7"/>
     </row>
-    <row r="638" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E638" s="7"/>
     </row>
-    <row r="639" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E639" s="7"/>
     </row>
-    <row r="640" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E640" s="7"/>
     </row>
-    <row r="641" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E641" s="7"/>
     </row>
-    <row r="642" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E642" s="7"/>
     </row>
-    <row r="643" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E643" s="7"/>
     </row>
-    <row r="644" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E644" s="7"/>
     </row>
-    <row r="645" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E645" s="7"/>
     </row>
-    <row r="646" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E646" s="7"/>
     </row>
-    <row r="647" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E647" s="7"/>
     </row>
-    <row r="648" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E648" s="7"/>
     </row>
-    <row r="649" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E649" s="7"/>
     </row>
-    <row r="650" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E650" s="7"/>
     </row>
-    <row r="651" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E651" s="7"/>
     </row>
-    <row r="652" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E652" s="7"/>
     </row>
-    <row r="653" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E653" s="7"/>
     </row>
-    <row r="654" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E654" s="7"/>
     </row>
-    <row r="655" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E655" s="7"/>
     </row>
-    <row r="656" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E656" s="7"/>
     </row>
-    <row r="657" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E657" s="7"/>
     </row>
-    <row r="658" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E658" s="7"/>
     </row>
-    <row r="659" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E659" s="7"/>
     </row>
-    <row r="660" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E660" s="7"/>
     </row>
-    <row r="661" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E661" s="7"/>
     </row>
-    <row r="662" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E662" s="7"/>
     </row>
-    <row r="663" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E663" s="7"/>
     </row>
-    <row r="664" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E664" s="7"/>
     </row>
-    <row r="665" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E665" s="7"/>
     </row>
-    <row r="666" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E666" s="7"/>
     </row>
-    <row r="667" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E667" s="7"/>
     </row>
-    <row r="668" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E668" s="7"/>
     </row>
-    <row r="669" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E669" s="7"/>
     </row>
-    <row r="670" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E670" s="7"/>
     </row>
-    <row r="671" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E671" s="7"/>
     </row>
-    <row r="672" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E672" s="7"/>
     </row>
-    <row r="673" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E673" s="7"/>
     </row>
-    <row r="674" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E674" s="7"/>
     </row>
-    <row r="675" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E675" s="7"/>
     </row>
-    <row r="676" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E676" s="7"/>
     </row>
-    <row r="677" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E677" s="7"/>
     </row>
-    <row r="678" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E678" s="7"/>
     </row>
-    <row r="679" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E679" s="7"/>
     </row>
-    <row r="680" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E680" s="7"/>
     </row>
-    <row r="681" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E681" s="7"/>
     </row>
-    <row r="682" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E682" s="7"/>
     </row>
-    <row r="683" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E683" s="7"/>
     </row>
-    <row r="684" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E684" s="7"/>
     </row>
-    <row r="685" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E685" s="7"/>
     </row>
-    <row r="686" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E686" s="7"/>
     </row>
-    <row r="687" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E687" s="7"/>
     </row>
-    <row r="688" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E688" s="7"/>
     </row>
-    <row r="689" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E689" s="7"/>
     </row>
-    <row r="690" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E690" s="7"/>
     </row>
-    <row r="691" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E691" s="7"/>
     </row>
-    <row r="692" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E692" s="7"/>
     </row>
-    <row r="693" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E693" s="7"/>
     </row>
-    <row r="694" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E694" s="7"/>
     </row>
-    <row r="695" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E695" s="7"/>
     </row>
-    <row r="696" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E696" s="7"/>
     </row>
-    <row r="697" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E697" s="7"/>
     </row>
-    <row r="698" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E698" s="7"/>
     </row>
-    <row r="699" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E699" s="7"/>
     </row>
-    <row r="700" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E700" s="7"/>
     </row>
-    <row r="701" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E701" s="7"/>
     </row>
-    <row r="702" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E702" s="7"/>
     </row>
-    <row r="703" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E703" s="7"/>
     </row>
-    <row r="704" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E704" s="7"/>
     </row>
-    <row r="705" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E705" s="7"/>
     </row>
-    <row r="706" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E706" s="7"/>
     </row>
-    <row r="707" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E707" s="7"/>
     </row>
-    <row r="708" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E708" s="7"/>
     </row>
-    <row r="709" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E709" s="7"/>
     </row>
-    <row r="710" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E710" s="7"/>
     </row>
-    <row r="711" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E711" s="7"/>
     </row>
-    <row r="712" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E712" s="7"/>
     </row>
-    <row r="713" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E713" s="7"/>
     </row>
-    <row r="714" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E714" s="7"/>
     </row>
-    <row r="715" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E715" s="7"/>
     </row>
-    <row r="716" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E716" s="7"/>
     </row>
-    <row r="717" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E717" s="7"/>
     </row>
-    <row r="718" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E718" s="7"/>
     </row>
-    <row r="719" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E719" s="7"/>
     </row>
-    <row r="720" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E720" s="7"/>
     </row>
-    <row r="721" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E721" s="7"/>
     </row>
-    <row r="722" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E722" s="7"/>
     </row>
-    <row r="723" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E723" s="7"/>
     </row>
-    <row r="724" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E724" s="7"/>
     </row>
-    <row r="725" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E725" s="7"/>
     </row>
-    <row r="726" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E726" s="7"/>
     </row>
-    <row r="727" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E727" s="7"/>
     </row>
-    <row r="728" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E728" s="7"/>
     </row>
-    <row r="729" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E729" s="7"/>
     </row>
-    <row r="730" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E730" s="7"/>
     </row>
-    <row r="731" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E731" s="7"/>
     </row>
-    <row r="732" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E732" s="7"/>
     </row>
-    <row r="733" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E733" s="7"/>
     </row>
-    <row r="734" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E734" s="7"/>
     </row>
-    <row r="735" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E735" s="7"/>
     </row>
-    <row r="736" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E736" s="7"/>
     </row>
-    <row r="737" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E737" s="7"/>
     </row>
-    <row r="738" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E738" s="7"/>
     </row>
-    <row r="739" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E739" s="7"/>
     </row>
-    <row r="740" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E740" s="7"/>
     </row>
-    <row r="741" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E741" s="7"/>
     </row>
-    <row r="742" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E742" s="7"/>
     </row>
-    <row r="743" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E743" s="7"/>
     </row>
-    <row r="744" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E744" s="7"/>
     </row>
-    <row r="745" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E745" s="7"/>
     </row>
-    <row r="746" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E746" s="7"/>
     </row>
-    <row r="747" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E747" s="7"/>
     </row>
-    <row r="748" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E748" s="7"/>
     </row>
-    <row r="749" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E749" s="7"/>
     </row>
-    <row r="750" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E750" s="7"/>
     </row>
-    <row r="751" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E751" s="7"/>
     </row>
-    <row r="752" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E752" s="7"/>
     </row>
-    <row r="753" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E753" s="7"/>
     </row>
-    <row r="754" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E754" s="7"/>
     </row>
-    <row r="755" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E755" s="7"/>
     </row>
-    <row r="756" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E756" s="7"/>
     </row>
-    <row r="757" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E757" s="7"/>
     </row>
-    <row r="758" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E758" s="7"/>
     </row>
-    <row r="759" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E759" s="7"/>
     </row>
-    <row r="760" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E760" s="7"/>
     </row>
-    <row r="761" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E761" s="7"/>
     </row>
-    <row r="762" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E762" s="7"/>
     </row>
-    <row r="763" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E763" s="7"/>
     </row>
-    <row r="764" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E764" s="7"/>
     </row>
-    <row r="765" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E765" s="7"/>
     </row>
-    <row r="766" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E766" s="7"/>
     </row>
-    <row r="767" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E767" s="7"/>
     </row>
-    <row r="768" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E768" s="7"/>
     </row>
-    <row r="769" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E769" s="7"/>
     </row>
-    <row r="770" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E770" s="7"/>
     </row>
-    <row r="771" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E771" s="7"/>
     </row>
-    <row r="772" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E772" s="7"/>
     </row>
-    <row r="773" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E773" s="7"/>
     </row>
-    <row r="774" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E774" s="7"/>
     </row>
-    <row r="775" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E775" s="7"/>
     </row>
-    <row r="776" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E776" s="7"/>
     </row>
-    <row r="777" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E777" s="7"/>
     </row>
-    <row r="778" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E778" s="7"/>
     </row>
-    <row r="779" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E779" s="7"/>
     </row>
-    <row r="780" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E780" s="7"/>
     </row>
-    <row r="781" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E781" s="7"/>
     </row>
-    <row r="782" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E782" s="7"/>
     </row>
-    <row r="783" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E783" s="7"/>
     </row>
-    <row r="784" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E784" s="7"/>
     </row>
-    <row r="785" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E785" s="7"/>
     </row>
-    <row r="786" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E786" s="7"/>
     </row>
-    <row r="787" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E787" s="7"/>
     </row>
-    <row r="788" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E788" s="7"/>
     </row>
-    <row r="789" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E789" s="7"/>
     </row>
-    <row r="790" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E790" s="7"/>
     </row>
-    <row r="791" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E791" s="7"/>
     </row>
-    <row r="792" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E792" s="7"/>
     </row>
-    <row r="793" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E793" s="7"/>
     </row>
-    <row r="794" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E794" s="7"/>
     </row>
-    <row r="795" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E795" s="7"/>
     </row>
-    <row r="796" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E796" s="7"/>
     </row>
-    <row r="797" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E797" s="7"/>
     </row>
-    <row r="798" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E798" s="7"/>
     </row>
-    <row r="799" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E799" s="7"/>
     </row>
-    <row r="800" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E800" s="7"/>
     </row>
-    <row r="801" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E801" s="7"/>
     </row>
-    <row r="802" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E802" s="7"/>
     </row>
-    <row r="803" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E803" s="7"/>
     </row>
-    <row r="804" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E804" s="7"/>
     </row>
-    <row r="805" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E805" s="7"/>
     </row>
-    <row r="806" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E806" s="7"/>
     </row>
-    <row r="807" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E807" s="7"/>
     </row>
-    <row r="808" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E808" s="7"/>
     </row>
-    <row r="809" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E809" s="7"/>
     </row>
-    <row r="810" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E810" s="7"/>
     </row>
-    <row r="811" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E811" s="7"/>
     </row>
-    <row r="812" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E812" s="7"/>
     </row>
-    <row r="813" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E813" s="7"/>
     </row>
-    <row r="814" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E814" s="7"/>
     </row>
-    <row r="815" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E815" s="7"/>
     </row>
-    <row r="816" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E816" s="7"/>
     </row>
-    <row r="817" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E817" s="7"/>
     </row>
-    <row r="818" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E818" s="7"/>
     </row>
-    <row r="819" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E819" s="7"/>
     </row>
-    <row r="820" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E820" s="7"/>
     </row>
-    <row r="821" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E821" s="7"/>
     </row>
-    <row r="822" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E822" s="7"/>
     </row>
-    <row r="823" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E823" s="7"/>
     </row>
-    <row r="824" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E824" s="7"/>
     </row>
-    <row r="825" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E825" s="7"/>
     </row>
-    <row r="826" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E826" s="7"/>
     </row>
-    <row r="827" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E827" s="7"/>
     </row>
-    <row r="828" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E828" s="7"/>
     </row>
-    <row r="829" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E829" s="7"/>
     </row>
-    <row r="830" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E830" s="7"/>
     </row>
-    <row r="831" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E831" s="7"/>
     </row>
-    <row r="832" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E832" s="7"/>
     </row>
-    <row r="833" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E833" s="7"/>
     </row>
-    <row r="834" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E834" s="7"/>
     </row>
-    <row r="835" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E835" s="7"/>
     </row>
-    <row r="836" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E836" s="7"/>
     </row>
-    <row r="837" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E837" s="7"/>
     </row>
-    <row r="838" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E838" s="7"/>
     </row>
-    <row r="839" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E839" s="7"/>
     </row>
-    <row r="840" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E840" s="7"/>
     </row>
-    <row r="841" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E841" s="7"/>
     </row>
-    <row r="842" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E842" s="7"/>
     </row>
-    <row r="843" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E843" s="7"/>
     </row>
-    <row r="844" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E844" s="7"/>
     </row>
-    <row r="845" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E845" s="7"/>
     </row>
-    <row r="846" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E846" s="7"/>
     </row>
-    <row r="847" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E847" s="7"/>
     </row>
-    <row r="848" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E848" s="7"/>
     </row>
-    <row r="849" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E849" s="7"/>
     </row>
-    <row r="850" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E850" s="7"/>
     </row>
-    <row r="851" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E851" s="7"/>
     </row>
-    <row r="852" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E852" s="7"/>
     </row>
-    <row r="853" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E853" s="7"/>
     </row>
-    <row r="854" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E854" s="7"/>
     </row>
-    <row r="855" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E855" s="7"/>
     </row>
-    <row r="856" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E856" s="7"/>
     </row>
-    <row r="857" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E857" s="7"/>
     </row>
-    <row r="858" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E858" s="7"/>
     </row>
-    <row r="859" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E859" s="7"/>
     </row>
-    <row r="860" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E860" s="7"/>
     </row>
-    <row r="861" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E861" s="7"/>
     </row>
-    <row r="862" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E862" s="7"/>
     </row>
-    <row r="863" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E863" s="7"/>
     </row>
-    <row r="864" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E864" s="7"/>
     </row>
-    <row r="865" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E865" s="7"/>
     </row>
-    <row r="866" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E866" s="7"/>
     </row>
-    <row r="867" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E867" s="7"/>
     </row>
-    <row r="868" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E868" s="7"/>
     </row>
-    <row r="869" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E869" s="7"/>
     </row>
-    <row r="870" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E870" s="7"/>
     </row>
-    <row r="871" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E871" s="7"/>
     </row>
-    <row r="872" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E872" s="7"/>
     </row>
-    <row r="873" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E873" s="7"/>
     </row>
-    <row r="874" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E874" s="7"/>
     </row>
-    <row r="875" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E875" s="7"/>
     </row>
-    <row r="876" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E876" s="7"/>
     </row>
-    <row r="877" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E877" s="7"/>
     </row>
-    <row r="878" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E878" s="7"/>
     </row>
-    <row r="879" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E879" s="7"/>
     </row>
-    <row r="880" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E880" s="7"/>
     </row>
-    <row r="881" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E881" s="7"/>
     </row>
-    <row r="882" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E882" s="7"/>
     </row>
-    <row r="883" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E883" s="7"/>
     </row>
-    <row r="884" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E884" s="7"/>
     </row>
-    <row r="885" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E885" s="7"/>
     </row>
-    <row r="886" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E886" s="7"/>
     </row>
-    <row r="887" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E887" s="7"/>
     </row>
-    <row r="888" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E888" s="7"/>
     </row>
-    <row r="889" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E889" s="7"/>
     </row>
-    <row r="890" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E890" s="7"/>
     </row>
-    <row r="891" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E891" s="7"/>
     </row>
-    <row r="892" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E892" s="7"/>
     </row>
-    <row r="893" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E893" s="7"/>
     </row>
-    <row r="894" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E894" s="7"/>
     </row>
-    <row r="895" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E895" s="7"/>
     </row>
-    <row r="896" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E896" s="7"/>
     </row>
-    <row r="897" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E897" s="7"/>
     </row>
-    <row r="898" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E898" s="7"/>
     </row>
-    <row r="899" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E899" s="7"/>
     </row>
-    <row r="900" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E900" s="7"/>
     </row>
-    <row r="901" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E901" s="7"/>
     </row>
-    <row r="902" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E902" s="7"/>
     </row>
-    <row r="903" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E903" s="7"/>
     </row>
-    <row r="904" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E904" s="7"/>
     </row>
-    <row r="905" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E905" s="7"/>
     </row>
-    <row r="906" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E906" s="7"/>
     </row>
-    <row r="907" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E907" s="7"/>
     </row>
-    <row r="908" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E908" s="7"/>
     </row>
-    <row r="909" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E909" s="7"/>
     </row>
-    <row r="910" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E910" s="7"/>
     </row>
-    <row r="911" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E911" s="7"/>
     </row>
-    <row r="912" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E912" s="7"/>
     </row>
-    <row r="913" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E913" s="7"/>
     </row>
-    <row r="914" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E914" s="7"/>
     </row>
-    <row r="915" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E915" s="7"/>
     </row>
-    <row r="916" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E916" s="7"/>
     </row>
-    <row r="917" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E917" s="7"/>
     </row>
-    <row r="918" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E918" s="7"/>
     </row>
-    <row r="919" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E919" s="7"/>
     </row>
-    <row r="920" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E920" s="7"/>
     </row>
-    <row r="921" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E921" s="7"/>
     </row>
-    <row r="922" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E922" s="7"/>
     </row>
-    <row r="923" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E923" s="7"/>
     </row>
-    <row r="924" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E924" s="7"/>
     </row>
-    <row r="925" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E925" s="7"/>
     </row>
-    <row r="926" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E926" s="7"/>
     </row>
-    <row r="927" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E927" s="7"/>
     </row>
-    <row r="928" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E928" s="7"/>
     </row>
-    <row r="929" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E929" s="7"/>
     </row>
-    <row r="930" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E930" s="7"/>
     </row>
-    <row r="931" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E931" s="7"/>
     </row>
-    <row r="932" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E932" s="7"/>
     </row>
-    <row r="933" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E933" s="7"/>
     </row>
-    <row r="934" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E934" s="7"/>
     </row>
-    <row r="935" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E935" s="7"/>
     </row>
-    <row r="936" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E936" s="7"/>
     </row>
-    <row r="937" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E937" s="7"/>
     </row>
-    <row r="938" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E938" s="7"/>
     </row>
-    <row r="939" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E939" s="7"/>
     </row>
-    <row r="940" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E940" s="7"/>
     </row>
-    <row r="941" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E941" s="7"/>
     </row>
-    <row r="942" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E942" s="7"/>
     </row>
-    <row r="943" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E943" s="7"/>
     </row>
-    <row r="944" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E944" s="7"/>
     </row>
-    <row r="945" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E945" s="7"/>
     </row>
-    <row r="946" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E946" s="7"/>
     </row>
-    <row r="947" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E947" s="7"/>
     </row>
-    <row r="948" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E948" s="7"/>
     </row>
-    <row r="949" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E949" s="7"/>
     </row>
-    <row r="950" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E950" s="7"/>
     </row>
-    <row r="951" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E951" s="7"/>
     </row>
-    <row r="952" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E952" s="7"/>
     </row>
-    <row r="953" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E953" s="7"/>
     </row>
-    <row r="954" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E954" s="7"/>
     </row>
-    <row r="955" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E955" s="7"/>
     </row>
-    <row r="956" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E956" s="7"/>
     </row>
-    <row r="957" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E957" s="7"/>
     </row>
-    <row r="958" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E958" s="7"/>
     </row>
-    <row r="959" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E959" s="7"/>
     </row>
-    <row r="960" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E960" s="7"/>
     </row>
-    <row r="961" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E961" s="7"/>
     </row>
-    <row r="962" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E962" s="7"/>
     </row>
-    <row r="963" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E963" s="7"/>
     </row>
-    <row r="964" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E964" s="7"/>
     </row>
-    <row r="965" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E965" s="7"/>
     </row>
-    <row r="966" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E966" s="7"/>
     </row>
-    <row r="967" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E967" s="7"/>
     </row>
-    <row r="968" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E968" s="7"/>
     </row>
-    <row r="969" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E969" s="7"/>
     </row>
-    <row r="970" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E970" s="7"/>
     </row>
-    <row r="971" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E971" s="7"/>
     </row>
-    <row r="972" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E972" s="7"/>
     </row>
-    <row r="973" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E973" s="7"/>
     </row>
-    <row r="974" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E974" s="7"/>
     </row>
-    <row r="975" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E975" s="7"/>
     </row>
-    <row r="976" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E976" s="7"/>
     </row>
-    <row r="977" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E977" s="7"/>
     </row>
-    <row r="978" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E978" s="7"/>
     </row>
-    <row r="979" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E979" s="7"/>
     </row>
-    <row r="980" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E980" s="7"/>
     </row>
-    <row r="981" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E981" s="7"/>
     </row>
-    <row r="982" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E982" s="7"/>
     </row>
-    <row r="983" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E983" s="7"/>
     </row>
-    <row r="984" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E984" s="7"/>
     </row>
-    <row r="985" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E985" s="7"/>
     </row>
-    <row r="986" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E986" s="7"/>
     </row>
-    <row r="987" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E987" s="7"/>
     </row>
-    <row r="988" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E988" s="7"/>
     </row>
-    <row r="989" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E989" s="7"/>
     </row>
-    <row r="990" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E990" s="7"/>
     </row>
-    <row r="991" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E991" s="7"/>
     </row>
-    <row r="992" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E992" s="7"/>
     </row>
-    <row r="993" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E993" s="7"/>
     </row>
-    <row r="994" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E994" s="7"/>
     </row>
-    <row r="995" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E995" s="7"/>
     </row>
-    <row r="996" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E996" s="7"/>
     </row>
-    <row r="997" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E997" s="7"/>
     </row>
-    <row r="998" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E998" s="7"/>
     </row>
-    <row r="999" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E999" s="7"/>
     </row>
-    <row r="1000" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1000" s="7"/>
     </row>
   </sheetData>

--- a/templateNew.xlsx
+++ b/templateNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2ED3DFF-9C46-4897-A0F6-8F55C5F91FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE2D233-F2ED-4B7F-BEBA-9793AC01D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>VERY GOOD BUILDING COMPANY</t>
   </si>
   <si>
-    <t>MAY</t>
+    <t>APRIL</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="str">
         <f>COUNTA(Formulas!H2:H30) &amp; " DAYS"</f>
-        <v>23 DAYS</v>
+        <v>22 DAYS</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -842,10 +842,10 @@
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" cm="1">
         <f t="array" ref="A12:B35">_xlfn._xlws.FILTER(IF(Formulas!$J$2:'Formulas'!$K$31&lt;&gt;0, Formulas!$J$2:'Formulas'!$K$31, ""), (ROW(Formulas!$J$2:'Formulas'!$J$31) &lt;= MAX(_xlfn._xlws.FILTER(ROW(Formulas!$J$2:'Formulas'!$J$31), Formulas!$J$2:'Formulas'!$J$31&lt;&gt;""))))</f>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="16">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -856,138 +856,138 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
-        <v>45414</v>
+        <v>45384</v>
       </c>
       <c r="B13" s="16">
-        <v>45414</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
-        <v>45415</v>
+        <v>45385</v>
       </c>
       <c r="B14" s="16">
-        <v>45415</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
-        <v>45418</v>
+        <v>45386</v>
       </c>
       <c r="B15" s="16">
-        <v>45418</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>45419</v>
+        <v>45387</v>
       </c>
       <c r="B16" s="16">
-        <v>45419</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>45420</v>
+        <v>45390</v>
       </c>
       <c r="B17" s="16">
-        <v>45420</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>45421</v>
+        <v>45391</v>
       </c>
       <c r="B18" s="16">
-        <v>45421</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>45422</v>
+        <v>45392</v>
       </c>
       <c r="B19" s="16">
-        <v>45422</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>45425</v>
+        <v>45393</v>
       </c>
       <c r="B20" s="16">
-        <v>45425</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>45426</v>
+        <v>45394</v>
       </c>
       <c r="B21" s="16">
-        <v>45426</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>45427</v>
+        <v>45397</v>
       </c>
       <c r="B22" s="16">
-        <v>45427</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>45428</v>
+        <v>45398</v>
       </c>
       <c r="B23" s="16">
-        <v>45428</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
-        <v>45429</v>
+        <v>45399</v>
       </c>
       <c r="B24" s="16">
-        <v>45429</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
-        <v>45432</v>
+        <v>45400</v>
       </c>
       <c r="B25" s="16">
-        <v>45432</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
-        <v>45433</v>
+        <v>45401</v>
       </c>
       <c r="B26" s="16">
-        <v>45433</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
-        <v>45434</v>
+        <v>45404</v>
       </c>
       <c r="B27" s="16">
-        <v>45434</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21">
-        <v>45435</v>
+        <v>45405</v>
       </c>
       <c r="B28" s="16">
-        <v>45435</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
-        <v>45436</v>
-      </c>
-      <c r="B29" s="16">
-        <v>45436</v>
+      <c r="A29" s="21" t="str">
+        <v/>
+      </c>
+      <c r="B29" s="16" t="str">
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,42 +1000,42 @@
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
-        <v>45439</v>
+        <v>45406</v>
       </c>
       <c r="B31" s="16">
-        <v>45439</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
-        <v>45440</v>
+        <v>45407</v>
       </c>
       <c r="B32" s="16">
-        <v>45440</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
-        <v>45441</v>
+        <v>45408</v>
       </c>
       <c r="B33" s="16">
-        <v>45441</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
-        <v>45442</v>
+        <v>45411</v>
       </c>
       <c r="B34" s="22">
-        <v>45442</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B35" s="16">
-        <v>45443</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36">
         <f>DATEVALUE('999'!$F$8 &amp; " 1, " &amp; '999'!$H$8)</f>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="C1" s="36"/>
       <c r="E1" s="37" t="s">
@@ -3951,26 +3951,26 @@
         <v>1</v>
       </c>
       <c r="E2" s="25" cm="1">
-        <f t="array" ref="E2:E32">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
-        <v>45413</v>
+        <f t="array" ref="E2:E31">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
+        <v>45383</v>
       </c>
       <c r="F2" s="27">
         <f>IF($E2="","",WEEKDAY($E2)-1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="25" cm="1">
-        <f t="array" ref="H2:H24">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
-        <v>45413</v>
+        <f t="array" ref="H2:H23">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
+        <v>45383</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="19" cm="1">
-        <f t="array" ref="J2:J19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45413</v>
+        <f t="array" ref="J2:J18">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45383</v>
       </c>
       <c r="K2" s="13" cm="1">
-        <f t="array" ref="K2:K19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45413</v>
+        <f t="array" ref="K2:K18">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45383</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -3982,22 +3982,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>45414</v>
+        <v>45384</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F32" si="1">IF($E3="","",WEEKDAY($E3)-1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="4">
-        <v>45414</v>
+        <v>45384</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="19">
-        <v>45414</v>
+        <v>45384</v>
       </c>
       <c r="K3" s="13">
-        <v>45414</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4009,22 +4009,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>45415</v>
+        <v>45385</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4">
-        <v>45415</v>
+        <v>45385</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="19">
-        <v>45415</v>
+        <v>45385</v>
       </c>
       <c r="K4" s="13">
-        <v>45415</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4036,22 +4036,22 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>45416</v>
+        <v>45386</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4">
-        <v>45418</v>
+        <v>45386</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="19">
-        <v>45418</v>
+        <v>45386</v>
       </c>
       <c r="K5" s="13">
-        <v>45418</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4063,22 +4063,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>45417</v>
+        <v>45387</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>45419</v>
+        <v>45387</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="19">
-        <v>45419</v>
+        <v>45387</v>
       </c>
       <c r="K6" s="13">
-        <v>45419</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4088,22 +4088,22 @@
         <v>-1</v>
       </c>
       <c r="E7" s="4">
-        <v>45418</v>
+        <v>45388</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4">
-        <v>45420</v>
+        <v>45390</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="19">
-        <v>45420</v>
+        <v>45390</v>
       </c>
       <c r="K7" s="13">
-        <v>45420</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4113,257 +4113,253 @@
       </c>
       <c r="C8" s="39"/>
       <c r="E8" s="4">
-        <v>45419</v>
+        <v>45389</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4">
-        <v>45421</v>
+        <v>45391</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="19">
-        <v>45421</v>
+        <v>45391</v>
       </c>
       <c r="K8" s="13">
-        <v>45421</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="E9" s="4">
-        <v>45420</v>
+        <v>45390</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4">
-        <v>45422</v>
+        <v>45392</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="19">
-        <v>45422</v>
+        <v>45392</v>
       </c>
       <c r="K9" s="13">
-        <v>45422</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
-        <v>45421</v>
+        <v>45391</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
-        <v>45425</v>
+        <v>45393</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="19">
-        <v>45425</v>
+        <v>45393</v>
       </c>
       <c r="K10" s="13">
-        <v>45425</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
-        <v>45422</v>
+        <v>45392</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4">
-        <v>45426</v>
+        <v>45394</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="19">
-        <v>45426</v>
+        <v>45394</v>
       </c>
       <c r="K11" s="13">
-        <v>45426</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
-        <v>45423</v>
+        <v>45393</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4">
-        <v>45427</v>
+        <v>45397</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="19">
-        <v>45427</v>
+        <v>45397</v>
       </c>
       <c r="K12" s="13">
-        <v>45427</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
-        <v>45424</v>
+        <v>45394</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="4">
-        <v>45428</v>
+        <v>45398</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="19">
-        <v>45428</v>
+        <v>45398</v>
       </c>
       <c r="K13" s="13">
-        <v>45428</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
-        <v>45425</v>
+        <v>45395</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
-        <v>45429</v>
+        <v>45399</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="19">
-        <v>45429</v>
+        <v>45399</v>
       </c>
       <c r="K14" s="13">
-        <v>45429</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
-        <v>45426</v>
+        <v>45396</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
-        <v>45432</v>
+        <v>45400</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="19">
-        <v>45432</v>
+        <v>45400</v>
       </c>
       <c r="K15" s="13">
-        <v>45432</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
-        <v>45427</v>
+        <v>45397</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4">
-        <v>45433</v>
+        <v>45401</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="19">
-        <v>45433</v>
+        <v>45401</v>
       </c>
       <c r="K16" s="13">
-        <v>45433</v>
+        <v>45401</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
-        <v>45428</v>
+        <v>45398</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
-        <v>45434</v>
+        <v>45404</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="19">
-        <v>45434</v>
+        <v>45404</v>
       </c>
       <c r="K17" s="13">
-        <v>45434</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
-        <v>45429</v>
+        <v>45399</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4">
-        <v>45435</v>
+        <v>45405</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="19">
-        <v>45435</v>
+        <v>45405</v>
       </c>
       <c r="K18" s="13">
-        <v>45435</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
-        <v>45430</v>
+        <v>45400</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="4">
-        <v>45436</v>
+        <v>45406</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="19">
-        <v>45436</v>
-      </c>
-      <c r="K19" s="13">
-        <v>45436</v>
-      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
-        <v>45431</v>
+        <v>45401</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4">
-        <v>45439</v>
+        <v>45407</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="19"/>
@@ -4371,111 +4367,109 @@
     </row>
     <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4">
-        <v>45432</v>
+        <v>45402</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4">
-        <v>45440</v>
+        <v>45408</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="19" cm="1">
         <f t="array" ref="J21:J25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=21)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45439</v>
+        <v>45406</v>
       </c>
       <c r="K21" s="13" cm="1">
         <f t="array" ref="K21:K25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=20)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45439</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="4">
-        <v>45433</v>
+        <v>45403</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="4">
-        <v>45441</v>
+        <v>45411</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="19">
-        <v>45440</v>
+        <v>45407</v>
       </c>
       <c r="K22" s="13">
-        <v>45440</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="4">
-        <v>45434</v>
+        <v>45404</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="4">
-        <v>45442</v>
+        <v>45412</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="19">
-        <v>45441</v>
+        <v>45408</v>
       </c>
       <c r="K23" s="13">
-        <v>45441</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="4">
-        <v>45435</v>
+        <v>45405</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4">
-        <v>45443</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="19">
-        <v>45442</v>
+        <v>45411</v>
       </c>
       <c r="K24" s="13">
-        <v>45442</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="4">
-        <v>45436</v>
+        <v>45406</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="19">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="K25" s="13">
-        <v>45443</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="4">
-        <v>45437</v>
+        <v>45407</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
@@ -4485,11 +4479,11 @@
     </row>
     <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="4">
-        <v>45438</v>
+        <v>45408</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
@@ -4499,11 +4493,11 @@
     </row>
     <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="4">
-        <v>45439</v>
+        <v>45409</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="4"/>
@@ -4513,11 +4507,11 @@
     </row>
     <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="4">
-        <v>45440</v>
+        <v>45410</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
@@ -4527,11 +4521,11 @@
     </row>
     <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="4">
-        <v>45441</v>
+        <v>45411</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
@@ -4541,11 +4535,11 @@
     </row>
     <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="4">
-        <v>45442</v>
+        <v>45412</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
@@ -4554,12 +4548,10 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4">
-        <v>45443</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="4"/>
+      <c r="F32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>

--- a/templateNew.xlsx
+++ b/templateNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE2D233-F2ED-4B7F-BEBA-9793AC01D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D73AB3B-8D0F-484D-BF62-8271640986ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>VERY GOOD BUILDING COMPANY</t>
   </si>
   <si>
-    <t>APRIL</t>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="str">
         <f>COUNTA(Formulas!H2:H30) &amp; " DAYS"</f>
-        <v>22 DAYS</v>
+        <v>23 DAYS</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -842,10 +842,10 @@
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" cm="1">
         <f t="array" ref="A12:B35">_xlfn._xlws.FILTER(IF(Formulas!$J$2:'Formulas'!$K$31&lt;&gt;0, Formulas!$J$2:'Formulas'!$K$31, ""), (ROW(Formulas!$J$2:'Formulas'!$J$31) &lt;= MAX(_xlfn._xlws.FILTER(ROW(Formulas!$J$2:'Formulas'!$J$31), Formulas!$J$2:'Formulas'!$J$31&lt;&gt;""))))</f>
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="16">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -856,138 +856,138 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
-        <v>45384</v>
+        <v>45414</v>
       </c>
       <c r="B13" s="16">
-        <v>45384</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
-        <v>45385</v>
+        <v>45415</v>
       </c>
       <c r="B14" s="16">
-        <v>45385</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
-        <v>45386</v>
+        <v>45418</v>
       </c>
       <c r="B15" s="16">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>45387</v>
+        <v>45419</v>
       </c>
       <c r="B16" s="16">
-        <v>45387</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>45390</v>
+        <v>45420</v>
       </c>
       <c r="B17" s="16">
-        <v>45390</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>45391</v>
+        <v>45421</v>
       </c>
       <c r="B18" s="16">
-        <v>45391</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>45392</v>
+        <v>45422</v>
       </c>
       <c r="B19" s="16">
-        <v>45392</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>45393</v>
+        <v>45425</v>
       </c>
       <c r="B20" s="16">
-        <v>45393</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>45394</v>
+        <v>45426</v>
       </c>
       <c r="B21" s="16">
-        <v>45394</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>45397</v>
+        <v>45427</v>
       </c>
       <c r="B22" s="16">
-        <v>45397</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>45398</v>
+        <v>45428</v>
       </c>
       <c r="B23" s="16">
-        <v>45398</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
-        <v>45399</v>
+        <v>45429</v>
       </c>
       <c r="B24" s="16">
-        <v>45399</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
-        <v>45400</v>
+        <v>45432</v>
       </c>
       <c r="B25" s="16">
-        <v>45400</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
-        <v>45401</v>
+        <v>45433</v>
       </c>
       <c r="B26" s="16">
-        <v>45401</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
-        <v>45404</v>
+        <v>45434</v>
       </c>
       <c r="B27" s="16">
-        <v>45404</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21">
-        <v>45405</v>
+        <v>45435</v>
       </c>
       <c r="B28" s="16">
-        <v>45405</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="str">
-        <v/>
-      </c>
-      <c r="B29" s="16" t="str">
-        <v/>
+      <c r="A29" s="21">
+        <v>45436</v>
+      </c>
+      <c r="B29" s="16">
+        <v>45436</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,42 +1000,42 @@
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
-        <v>45406</v>
+        <v>45439</v>
       </c>
       <c r="B31" s="16">
-        <v>45406</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
-        <v>45407</v>
+        <v>45440</v>
       </c>
       <c r="B32" s="16">
-        <v>45407</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
-        <v>45408</v>
+        <v>45441</v>
       </c>
       <c r="B33" s="16">
-        <v>45408</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
-        <v>45411</v>
+        <v>45442</v>
       </c>
       <c r="B34" s="22">
-        <v>45411</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B35" s="16">
-        <v>45412</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36">
         <f>DATEVALUE('999'!$F$8 &amp; " 1, " &amp; '999'!$H$8)</f>
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="C1" s="36"/>
       <c r="E1" s="37" t="s">
@@ -3951,26 +3951,26 @@
         <v>1</v>
       </c>
       <c r="E2" s="25" cm="1">
-        <f t="array" ref="E2:E31">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
-        <v>45383</v>
+        <f t="array" ref="E2:E32">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
+        <v>45413</v>
       </c>
       <c r="F2" s="27">
         <f>IF($E2="","",WEEKDAY($E2)-1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="25" cm="1">
-        <f t="array" ref="H2:H23">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
-        <v>45383</v>
+        <f t="array" ref="H2:H24">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
+        <v>45413</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="19" cm="1">
-        <f t="array" ref="J2:J18">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45383</v>
+        <f t="array" ref="J2:J19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45413</v>
       </c>
       <c r="K2" s="13" cm="1">
-        <f t="array" ref="K2:K18">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45383</v>
+        <f t="array" ref="K2:K19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45413</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -3982,22 +3982,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>45384</v>
+        <v>45414</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F32" si="1">IF($E3="","",WEEKDAY($E3)-1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="4">
-        <v>45384</v>
+        <v>45414</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="19">
-        <v>45384</v>
+        <v>45414</v>
       </c>
       <c r="K3" s="13">
-        <v>45384</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4009,22 +4009,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>45385</v>
+        <v>45415</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4">
-        <v>45385</v>
+        <v>45415</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="19">
-        <v>45385</v>
+        <v>45415</v>
       </c>
       <c r="K4" s="13">
-        <v>45385</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4036,22 +4036,22 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>45386</v>
+        <v>45416</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4">
-        <v>45386</v>
+        <v>45418</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="19">
-        <v>45386</v>
+        <v>45418</v>
       </c>
       <c r="K5" s="13">
-        <v>45386</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4063,22 +4063,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>45387</v>
+        <v>45417</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>45387</v>
+        <v>45419</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="19">
-        <v>45387</v>
+        <v>45419</v>
       </c>
       <c r="K6" s="13">
-        <v>45387</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4088,22 +4088,22 @@
         <v>-1</v>
       </c>
       <c r="E7" s="4">
-        <v>45388</v>
+        <v>45418</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4">
-        <v>45390</v>
+        <v>45420</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="19">
-        <v>45390</v>
+        <v>45420</v>
       </c>
       <c r="K7" s="13">
-        <v>45390</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4113,253 +4113,257 @@
       </c>
       <c r="C8" s="39"/>
       <c r="E8" s="4">
-        <v>45389</v>
+        <v>45419</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4">
-        <v>45391</v>
+        <v>45421</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="19">
-        <v>45391</v>
+        <v>45421</v>
       </c>
       <c r="K8" s="13">
-        <v>45391</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="E9" s="4">
-        <v>45390</v>
+        <v>45420</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4">
-        <v>45392</v>
+        <v>45422</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="19">
-        <v>45392</v>
+        <v>45422</v>
       </c>
       <c r="K9" s="13">
-        <v>45392</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
-        <v>45391</v>
+        <v>45421</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
-        <v>45393</v>
+        <v>45425</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="19">
-        <v>45393</v>
+        <v>45425</v>
       </c>
       <c r="K10" s="13">
-        <v>45393</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
-        <v>45392</v>
+        <v>45422</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4">
-        <v>45394</v>
+        <v>45426</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="19">
-        <v>45394</v>
+        <v>45426</v>
       </c>
       <c r="K11" s="13">
-        <v>45394</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
-        <v>45393</v>
+        <v>45423</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4">
-        <v>45397</v>
+        <v>45427</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="19">
-        <v>45397</v>
+        <v>45427</v>
       </c>
       <c r="K12" s="13">
-        <v>45397</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
-        <v>45394</v>
+        <v>45424</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="4">
-        <v>45398</v>
+        <v>45428</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="19">
-        <v>45398</v>
+        <v>45428</v>
       </c>
       <c r="K13" s="13">
-        <v>45398</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
-        <v>45395</v>
+        <v>45425</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
-        <v>45399</v>
+        <v>45429</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="19">
-        <v>45399</v>
+        <v>45429</v>
       </c>
       <c r="K14" s="13">
-        <v>45399</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
-        <v>45396</v>
+        <v>45426</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
-        <v>45400</v>
+        <v>45432</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="19">
-        <v>45400</v>
+        <v>45432</v>
       </c>
       <c r="K15" s="13">
-        <v>45400</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
-        <v>45397</v>
+        <v>45427</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4">
-        <v>45401</v>
+        <v>45433</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="19">
-        <v>45401</v>
+        <v>45433</v>
       </c>
       <c r="K16" s="13">
-        <v>45401</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
-        <v>45398</v>
+        <v>45428</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
-        <v>45404</v>
+        <v>45434</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="19">
-        <v>45404</v>
+        <v>45434</v>
       </c>
       <c r="K17" s="13">
-        <v>45404</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
-        <v>45399</v>
+        <v>45429</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4">
-        <v>45405</v>
+        <v>45435</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="19">
-        <v>45405</v>
+        <v>45435</v>
       </c>
       <c r="K18" s="13">
-        <v>45405</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
-        <v>45400</v>
+        <v>45430</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="4">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="19">
+        <v>45436</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45436</v>
+      </c>
     </row>
     <row r="20" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
-        <v>45401</v>
+        <v>45431</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4">
-        <v>45407</v>
+        <v>45439</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="19"/>
@@ -4367,109 +4371,111 @@
     </row>
     <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4">
-        <v>45402</v>
+        <v>45432</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4">
-        <v>45408</v>
+        <v>45440</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="19" cm="1">
         <f t="array" ref="J21:J25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=21)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45406</v>
+        <v>45439</v>
       </c>
       <c r="K21" s="13" cm="1">
         <f t="array" ref="K21:K25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=20)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45406</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="4">
-        <v>45403</v>
+        <v>45433</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="4">
-        <v>45411</v>
+        <v>45441</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="19">
-        <v>45407</v>
+        <v>45440</v>
       </c>
       <c r="K22" s="13">
-        <v>45407</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="4">
-        <v>45404</v>
+        <v>45434</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="4">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="19">
-        <v>45408</v>
+        <v>45441</v>
       </c>
       <c r="K23" s="13">
-        <v>45408</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="4">
-        <v>45405</v>
+        <v>45435</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>45443</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="19">
-        <v>45411</v>
+        <v>45442</v>
       </c>
       <c r="K24" s="13">
-        <v>45411</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="4">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="19">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="K25" s="13">
-        <v>45412</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="4">
-        <v>45407</v>
+        <v>45437</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
@@ -4479,11 +4485,11 @@
     </row>
     <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="4">
-        <v>45408</v>
+        <v>45438</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
@@ -4493,11 +4499,11 @@
     </row>
     <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="4">
-        <v>45409</v>
+        <v>45439</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="4"/>
@@ -4507,11 +4513,11 @@
     </row>
     <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="4">
-        <v>45410</v>
+        <v>45440</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
@@ -4521,11 +4527,11 @@
     </row>
     <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="4">
-        <v>45411</v>
+        <v>45441</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
@@ -4535,11 +4541,11 @@
     </row>
     <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="4">
-        <v>45412</v>
+        <v>45442</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
@@ -4548,10 +4554,12 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="str">
+      <c r="E32" s="4">
+        <v>45443</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>

--- a/templateNew.xlsx
+++ b/templateNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D73AB3B-8D0F-484D-BF62-8271640986ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD056AA7-0C01-4866-9E95-6ACD93166912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>VERY GOOD BUILDING COMPANY</t>
   </si>
   <si>
-    <t>MAY</t>
+    <t>JUNE</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="str">
         <f>COUNTA(Formulas!H2:H30) &amp; " DAYS"</f>
-        <v>23 DAYS</v>
+        <v>20 DAYS</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -842,10 +842,10 @@
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" cm="1">
         <f t="array" ref="A12:B35">_xlfn._xlws.FILTER(IF(Formulas!$J$2:'Formulas'!$K$31&lt;&gt;0, Formulas!$J$2:'Formulas'!$K$31, ""), (ROW(Formulas!$J$2:'Formulas'!$J$31) &lt;= MAX(_xlfn._xlws.FILTER(ROW(Formulas!$J$2:'Formulas'!$J$31), Formulas!$J$2:'Formulas'!$J$31&lt;&gt;""))))</f>
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="B12" s="16">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -856,138 +856,138 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
-        <v>45414</v>
+        <v>45447</v>
       </c>
       <c r="B13" s="16">
-        <v>45414</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
-        <v>45415</v>
+        <v>45448</v>
       </c>
       <c r="B14" s="16">
-        <v>45415</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
-        <v>45418</v>
+        <v>45449</v>
       </c>
       <c r="B15" s="16">
-        <v>45418</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>45419</v>
+        <v>45450</v>
       </c>
       <c r="B16" s="16">
-        <v>45419</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>45420</v>
+        <v>45453</v>
       </c>
       <c r="B17" s="16">
-        <v>45420</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>45421</v>
+        <v>45454</v>
       </c>
       <c r="B18" s="16">
-        <v>45421</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>45422</v>
+        <v>45455</v>
       </c>
       <c r="B19" s="16">
-        <v>45422</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>45425</v>
+        <v>45456</v>
       </c>
       <c r="B20" s="16">
-        <v>45425</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>45426</v>
+        <v>45457</v>
       </c>
       <c r="B21" s="16">
-        <v>45426</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>45427</v>
+        <v>45460</v>
       </c>
       <c r="B22" s="16">
-        <v>45427</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>45428</v>
+        <v>45461</v>
       </c>
       <c r="B23" s="16">
-        <v>45428</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
-        <v>45429</v>
+        <v>45462</v>
       </c>
       <c r="B24" s="16">
-        <v>45429</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="B25" s="16">
-        <v>45432</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
-        <v>45433</v>
+        <v>45464</v>
       </c>
       <c r="B26" s="16">
-        <v>45433</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
-        <v>45434</v>
-      </c>
-      <c r="B27" s="16">
-        <v>45434</v>
+      <c r="A27" s="21" t="str">
+        <v/>
+      </c>
+      <c r="B27" s="16" t="str">
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
-        <v>45435</v>
-      </c>
-      <c r="B28" s="16">
-        <v>45435</v>
+      <c r="A28" s="21" t="str">
+        <v/>
+      </c>
+      <c r="B28" s="16" t="str">
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
-        <v>45436</v>
-      </c>
-      <c r="B29" s="16">
-        <v>45436</v>
+      <c r="A29" s="21" t="str">
+        <v/>
+      </c>
+      <c r="B29" s="16" t="str">
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,42 +1000,42 @@
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
-        <v>45439</v>
+        <v>45467</v>
       </c>
       <c r="B31" s="16">
-        <v>45439</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="B32" s="16">
-        <v>45440</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
-        <v>45441</v>
+        <v>45469</v>
       </c>
       <c r="B33" s="16">
-        <v>45441</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
-        <v>45442</v>
+        <v>45470</v>
       </c>
       <c r="B34" s="22">
-        <v>45442</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="B35" s="16">
-        <v>45443</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36">
         <f>DATEVALUE('999'!$F$8 &amp; " 1, " &amp; '999'!$H$8)</f>
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="C1" s="36"/>
       <c r="E1" s="37" t="s">
@@ -3951,26 +3951,26 @@
         <v>1</v>
       </c>
       <c r="E2" s="25" cm="1">
-        <f t="array" ref="E2:E32">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
-        <v>45413</v>
+        <f t="array" ref="E2:E31">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
+        <v>45444</v>
       </c>
       <c r="F2" s="27">
         <f>IF($E2="","",WEEKDAY($E2)-1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="25" cm="1">
-        <f t="array" ref="H2:H24">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
-        <v>45413</v>
+        <f t="array" ref="H2:H21">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
+        <v>45446</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="19" cm="1">
-        <f t="array" ref="J2:J19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45413</v>
+        <f t="array" ref="J2:J16">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45446</v>
       </c>
       <c r="K2" s="13" cm="1">
-        <f t="array" ref="K2:K19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45413</v>
+        <f t="array" ref="K2:K16">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45446</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -3982,22 +3982,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>45414</v>
+        <v>45445</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F32" si="1">IF($E3="","",WEEKDAY($E3)-1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="4">
-        <v>45414</v>
+        <v>45447</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="19">
-        <v>45414</v>
+        <v>45447</v>
       </c>
       <c r="K3" s="13">
-        <v>45414</v>
+        <v>45447</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4009,22 +4009,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>45415</v>
+        <v>45446</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4">
-        <v>45415</v>
+        <v>45448</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="19">
-        <v>45415</v>
+        <v>45448</v>
       </c>
       <c r="K4" s="13">
-        <v>45415</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4036,22 +4036,22 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>45416</v>
+        <v>45447</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4">
-        <v>45418</v>
+        <v>45449</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="19">
-        <v>45418</v>
+        <v>45449</v>
       </c>
       <c r="K5" s="13">
-        <v>45418</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4063,22 +4063,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>45417</v>
+        <v>45448</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>45419</v>
+        <v>45450</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="19">
-        <v>45419</v>
+        <v>45450</v>
       </c>
       <c r="K6" s="13">
-        <v>45419</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4088,22 +4088,22 @@
         <v>-1</v>
       </c>
       <c r="E7" s="4">
-        <v>45418</v>
+        <v>45449</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4">
-        <v>45420</v>
+        <v>45453</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="19">
-        <v>45420</v>
+        <v>45453</v>
       </c>
       <c r="K7" s="13">
-        <v>45420</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4113,257 +4113,245 @@
       </c>
       <c r="C8" s="39"/>
       <c r="E8" s="4">
-        <v>45419</v>
+        <v>45450</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4">
-        <v>45421</v>
+        <v>45454</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="19">
-        <v>45421</v>
+        <v>45454</v>
       </c>
       <c r="K8" s="13">
-        <v>45421</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="E9" s="4">
-        <v>45420</v>
+        <v>45451</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4">
-        <v>45422</v>
+        <v>45455</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="19">
-        <v>45422</v>
+        <v>45455</v>
       </c>
       <c r="K9" s="13">
-        <v>45422</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
-        <v>45421</v>
+        <v>45452</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
-        <v>45425</v>
+        <v>45456</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="19">
-        <v>45425</v>
+        <v>45456</v>
       </c>
       <c r="K10" s="13">
-        <v>45425</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
-        <v>45422</v>
+        <v>45453</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4">
-        <v>45426</v>
+        <v>45457</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="19">
-        <v>45426</v>
+        <v>45457</v>
       </c>
       <c r="K11" s="13">
-        <v>45426</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
-        <v>45423</v>
+        <v>45454</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4">
-        <v>45427</v>
+        <v>45460</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="19">
-        <v>45427</v>
+        <v>45460</v>
       </c>
       <c r="K12" s="13">
-        <v>45427</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
-        <v>45424</v>
+        <v>45455</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="4">
-        <v>45428</v>
+        <v>45461</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="19">
-        <v>45428</v>
+        <v>45461</v>
       </c>
       <c r="K13" s="13">
-        <v>45428</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
-        <v>45425</v>
+        <v>45456</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
-        <v>45429</v>
+        <v>45462</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="19">
-        <v>45429</v>
+        <v>45462</v>
       </c>
       <c r="K14" s="13">
-        <v>45429</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
-        <v>45426</v>
+        <v>45457</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="19">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="K15" s="13">
-        <v>45432</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
-        <v>45427</v>
+        <v>45458</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4">
-        <v>45433</v>
+        <v>45464</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="19">
-        <v>45433</v>
+        <v>45464</v>
       </c>
       <c r="K16" s="13">
-        <v>45433</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
-        <v>45428</v>
+        <v>45459</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
-        <v>45434</v>
+        <v>45467</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="19">
-        <v>45434</v>
-      </c>
-      <c r="K17" s="13">
-        <v>45434</v>
-      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
-        <v>45429</v>
+        <v>45460</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4">
-        <v>45435</v>
+        <v>45468</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="19">
-        <v>45435</v>
-      </c>
-      <c r="K18" s="13">
-        <v>45435</v>
-      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
-        <v>45430</v>
+        <v>45461</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="4">
-        <v>45436</v>
+        <v>45469</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="19">
-        <v>45436</v>
-      </c>
-      <c r="K19" s="13">
-        <v>45436</v>
-      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
-        <v>45431</v>
+        <v>45462</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4">
-        <v>45439</v>
+        <v>45470</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="19"/>
@@ -4371,111 +4359,105 @@
     </row>
     <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4">
-        <v>45440</v>
+        <v>45471</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="19" cm="1">
         <f t="array" ref="J21:J25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=21)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45439</v>
+        <v>45467</v>
       </c>
       <c r="K21" s="13" cm="1">
         <f t="array" ref="K21:K25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=20)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45439</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="4">
-        <v>45433</v>
+        <v>45464</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="4">
-        <v>45441</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="6"/>
       <c r="J22" s="19">
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="K22" s="13">
-        <v>45440</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="4">
-        <v>45434</v>
+        <v>45465</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="4">
-        <v>45442</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="6"/>
       <c r="J23" s="19">
-        <v>45441</v>
+        <v>45469</v>
       </c>
       <c r="K23" s="13">
-        <v>45441</v>
+        <v>45469</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="4">
-        <v>45435</v>
+        <v>45466</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4">
-        <v>45443</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="19">
-        <v>45442</v>
+        <v>45470</v>
       </c>
       <c r="K24" s="13">
-        <v>45442</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="4">
-        <v>45436</v>
+        <v>45467</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="19">
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="K25" s="13">
-        <v>45443</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="4">
-        <v>45437</v>
+        <v>45468</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
@@ -4485,11 +4467,11 @@
     </row>
     <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="4">
-        <v>45438</v>
+        <v>45469</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
@@ -4499,11 +4481,11 @@
     </row>
     <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="4">
-        <v>45439</v>
+        <v>45470</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="4"/>
@@ -4513,11 +4495,11 @@
     </row>
     <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="4">
-        <v>45440</v>
+        <v>45471</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
@@ -4527,11 +4509,11 @@
     </row>
     <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="4">
-        <v>45441</v>
+        <v>45472</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
@@ -4541,11 +4523,11 @@
     </row>
     <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="4">
-        <v>45442</v>
+        <v>45473</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
@@ -4554,12 +4536,10 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4">
-        <v>45443</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="4"/>
+      <c r="F32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>

--- a/templateNew.xlsx
+++ b/templateNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD056AA7-0C01-4866-9E95-6ACD93166912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0049C5DC-9092-4591-9163-073225B73737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>VERY GOOD BUILDING COMPANY</t>
   </si>
   <si>
-    <t>JUNE</t>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="str">
         <f>COUNTA(Formulas!H2:H30) &amp; " DAYS"</f>
-        <v>20 DAYS</v>
+        <v>23 DAYS</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -842,10 +842,10 @@
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" cm="1">
         <f t="array" ref="A12:B35">_xlfn._xlws.FILTER(IF(Formulas!$J$2:'Formulas'!$K$31&lt;&gt;0, Formulas!$J$2:'Formulas'!$K$31, ""), (ROW(Formulas!$J$2:'Formulas'!$J$31) &lt;= MAX(_xlfn._xlws.FILTER(ROW(Formulas!$J$2:'Formulas'!$J$31), Formulas!$J$2:'Formulas'!$J$31&lt;&gt;""))))</f>
-        <v>45446</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="16">
-        <v>45446</v>
+        <v>45413</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -856,138 +856,138 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
-        <v>45447</v>
+        <v>45414</v>
       </c>
       <c r="B13" s="16">
-        <v>45447</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
-        <v>45448</v>
+        <v>45415</v>
       </c>
       <c r="B14" s="16">
-        <v>45448</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
-        <v>45449</v>
+        <v>45418</v>
       </c>
       <c r="B15" s="16">
-        <v>45449</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>45450</v>
+        <v>45419</v>
       </c>
       <c r="B16" s="16">
-        <v>45450</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>45453</v>
+        <v>45420</v>
       </c>
       <c r="B17" s="16">
-        <v>45453</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>45454</v>
+        <v>45421</v>
       </c>
       <c r="B18" s="16">
-        <v>45454</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>45455</v>
+        <v>45422</v>
       </c>
       <c r="B19" s="16">
-        <v>45455</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="B20" s="16">
-        <v>45456</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>45457</v>
+        <v>45426</v>
       </c>
       <c r="B21" s="16">
-        <v>45457</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>45460</v>
+        <v>45427</v>
       </c>
       <c r="B22" s="16">
-        <v>45460</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>45461</v>
+        <v>45428</v>
       </c>
       <c r="B23" s="16">
-        <v>45461</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
-        <v>45462</v>
+        <v>45429</v>
       </c>
       <c r="B24" s="16">
-        <v>45462</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
-        <v>45463</v>
+        <v>45432</v>
       </c>
       <c r="B25" s="16">
-        <v>45463</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
-        <v>45464</v>
+        <v>45433</v>
       </c>
       <c r="B26" s="16">
-        <v>45464</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="str">
-        <v/>
-      </c>
-      <c r="B27" s="16" t="str">
-        <v/>
+      <c r="A27" s="21">
+        <v>45434</v>
+      </c>
+      <c r="B27" s="16">
+        <v>45434</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="str">
-        <v/>
-      </c>
-      <c r="B28" s="16" t="str">
-        <v/>
+      <c r="A28" s="21">
+        <v>45435</v>
+      </c>
+      <c r="B28" s="16">
+        <v>45435</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="str">
-        <v/>
-      </c>
-      <c r="B29" s="16" t="str">
-        <v/>
+      <c r="A29" s="21">
+        <v>45436</v>
+      </c>
+      <c r="B29" s="16">
+        <v>45436</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,42 +1000,42 @@
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
-        <v>45467</v>
+        <v>45439</v>
       </c>
       <c r="B31" s="16">
-        <v>45467</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
-        <v>45468</v>
+        <v>45440</v>
       </c>
       <c r="B32" s="16">
-        <v>45468</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
-        <v>45469</v>
+        <v>45441</v>
       </c>
       <c r="B33" s="16">
-        <v>45469</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21">
-        <v>45470</v>
+        <v>45442</v>
       </c>
       <c r="B34" s="22">
-        <v>45470</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
-        <v>45471</v>
+        <v>45443</v>
       </c>
       <c r="B35" s="16">
-        <v>45471</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36">
         <f>DATEVALUE('999'!$F$8 &amp; " 1, " &amp; '999'!$H$8)</f>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="C1" s="36"/>
       <c r="E1" s="37" t="s">
@@ -3951,26 +3951,26 @@
         <v>1</v>
       </c>
       <c r="E2" s="25" cm="1">
-        <f t="array" ref="E2:E31">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
-        <v>45444</v>
+        <f t="array" ref="E2:E32">IF(B8=FALSE, _xlfn.SEQUENCE(DAY(EOMONTH(B1,0)), 1,B1, 1), "")</f>
+        <v>45413</v>
       </c>
       <c r="F2" s="27">
         <f>IF($E2="","",WEEKDAY($E2)-1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="25" cm="1">
-        <f t="array" ref="H2:H21">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
-        <v>45446</v>
+        <f t="array" ref="H2:H24">_xlfn._xlws.FILTER($E$2:$E$32, ($F$2:$F$32=$C$2)+($F$2:$F$32=$C$3)+($F$2:$F$32=$C$4)+($F$2:$F$32=$C$5)+($F$2:$F$32=$C$6)+($F$2:$F$32=$C$7), "")</f>
+        <v>45413</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="19" cm="1">
-        <f t="array" ref="J2:J16">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45446</v>
+        <f t="array" ref="J2:J19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45413</v>
       </c>
       <c r="K2" s="13" cm="1">
-        <f t="array" ref="K2:K16">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
-        <v>45446</v>
+        <f t="array" ref="K2:K19">IF(OR(ISBLANK($H$21), $H$26&lt;&gt;""), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;21)*($H$2:$H$32&lt;&gt;"")), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&lt;=COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")))</f>
+        <v>45413</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -3982,22 +3982,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>45445</v>
+        <v>45414</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F32" si="1">IF($E3="","",WEEKDAY($E3)-1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="4">
-        <v>45447</v>
+        <v>45414</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="19">
-        <v>45447</v>
+        <v>45414</v>
       </c>
       <c r="K3" s="13">
-        <v>45447</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4009,22 +4009,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>45446</v>
+        <v>45415</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4">
-        <v>45448</v>
+        <v>45415</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="19">
-        <v>45448</v>
+        <v>45415</v>
       </c>
       <c r="K4" s="13">
-        <v>45448</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4036,22 +4036,22 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>45447</v>
+        <v>45416</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4">
-        <v>45449</v>
+        <v>45418</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="19">
-        <v>45449</v>
+        <v>45418</v>
       </c>
       <c r="K5" s="13">
-        <v>45449</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4063,22 +4063,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>45448</v>
+        <v>45417</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <v>45450</v>
+        <v>45419</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="19">
-        <v>45450</v>
+        <v>45419</v>
       </c>
       <c r="K6" s="13">
-        <v>45450</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4088,22 +4088,22 @@
         <v>-1</v>
       </c>
       <c r="E7" s="4">
-        <v>45449</v>
+        <v>45418</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4">
-        <v>45453</v>
+        <v>45420</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="19">
-        <v>45453</v>
+        <v>45420</v>
       </c>
       <c r="K7" s="13">
-        <v>45453</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -4113,245 +4113,257 @@
       </c>
       <c r="C8" s="39"/>
       <c r="E8" s="4">
-        <v>45450</v>
+        <v>45419</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4">
-        <v>45454</v>
+        <v>45421</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="19">
-        <v>45454</v>
+        <v>45421</v>
       </c>
       <c r="K8" s="13">
-        <v>45454</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="E9" s="4">
-        <v>45451</v>
+        <v>45420</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4">
-        <v>45455</v>
+        <v>45422</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="19">
-        <v>45455</v>
+        <v>45422</v>
       </c>
       <c r="K9" s="13">
-        <v>45455</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E10" s="4">
-        <v>45452</v>
+        <v>45421</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="19">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="K10" s="13">
-        <v>45456</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E11" s="4">
-        <v>45453</v>
+        <v>45422</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4">
-        <v>45457</v>
+        <v>45426</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="19">
-        <v>45457</v>
+        <v>45426</v>
       </c>
       <c r="K11" s="13">
-        <v>45457</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
-        <v>45454</v>
+        <v>45423</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4">
-        <v>45460</v>
+        <v>45427</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="19">
-        <v>45460</v>
+        <v>45427</v>
       </c>
       <c r="K12" s="13">
-        <v>45460</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
-        <v>45455</v>
+        <v>45424</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="4">
-        <v>45461</v>
+        <v>45428</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="19">
-        <v>45461</v>
+        <v>45428</v>
       </c>
       <c r="K13" s="13">
-        <v>45461</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
-        <v>45462</v>
+        <v>45429</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="19">
-        <v>45462</v>
+        <v>45429</v>
       </c>
       <c r="K14" s="13">
-        <v>45462</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
-        <v>45457</v>
+        <v>45426</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
-        <v>45463</v>
+        <v>45432</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="19">
-        <v>45463</v>
+        <v>45432</v>
       </c>
       <c r="K15" s="13">
-        <v>45463</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E16" s="4">
-        <v>45458</v>
+        <v>45427</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4">
-        <v>45464</v>
+        <v>45433</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="19">
-        <v>45464</v>
+        <v>45433</v>
       </c>
       <c r="K16" s="13">
-        <v>45464</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4">
-        <v>45459</v>
+        <v>45428</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
-        <v>45467</v>
+        <v>45434</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="19">
+        <v>45434</v>
+      </c>
+      <c r="K17" s="13">
+        <v>45434</v>
+      </c>
     </row>
     <row r="18" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E18" s="4">
-        <v>45460</v>
+        <v>45429</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4">
-        <v>45468</v>
+        <v>45435</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="19">
+        <v>45435</v>
+      </c>
+      <c r="K18" s="13">
+        <v>45435</v>
+      </c>
     </row>
     <row r="19" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
-        <v>45461</v>
+        <v>45430</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="4">
-        <v>45469</v>
+        <v>45436</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="19">
+        <v>45436</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45436</v>
+      </c>
     </row>
     <row r="20" spans="5:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E20" s="4">
-        <v>45462</v>
+        <v>45431</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4">
-        <v>45470</v>
+        <v>45439</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="19"/>
@@ -4359,105 +4371,111 @@
     </row>
     <row r="21" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4">
-        <v>45463</v>
+        <v>45432</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4">
-        <v>45471</v>
+        <v>45440</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="19" cm="1">
         <f t="array" ref="J21:J25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=21)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45467</v>
+        <v>45439</v>
       </c>
       <c r="K21" s="13" cm="1">
         <f t="array" ref="K21:K25">IF(ISBLANK($H$21),"",IF(ISBLANK($H$26), _xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;COUNT($H$2:$H$32)-4)*($H$2:$H$32&lt;&gt;"")),_xlfn._xlws.FILTER($H$2:$H$32, (ROW($H$2:$H$32)&gt;=20)*($H$2:$H$32&lt;&gt;""))))</f>
-        <v>45467</v>
+        <v>45439</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="4">
-        <v>45464</v>
+        <v>45433</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>45441</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="19">
-        <v>45468</v>
+        <v>45440</v>
       </c>
       <c r="K22" s="13">
-        <v>45468</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="4">
-        <v>45465</v>
+        <v>45434</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>45442</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="19">
-        <v>45469</v>
+        <v>45441</v>
       </c>
       <c r="K23" s="13">
-        <v>45469</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="4">
-        <v>45466</v>
+        <v>45435</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>45443</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="19">
-        <v>45470</v>
+        <v>45442</v>
       </c>
       <c r="K24" s="13">
-        <v>45470</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="4">
-        <v>45467</v>
+        <v>45436</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
       <c r="J25" s="19">
-        <v>45471</v>
+        <v>45443</v>
       </c>
       <c r="K25" s="13">
-        <v>45471</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="4">
-        <v>45468</v>
+        <v>45437</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
@@ -4467,11 +4485,11 @@
     </row>
     <row r="27" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="4">
-        <v>45469</v>
+        <v>45438</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
@@ -4481,11 +4499,11 @@
     </row>
     <row r="28" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="4">
-        <v>45470</v>
+        <v>45439</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="4"/>
@@ -4495,11 +4513,11 @@
     </row>
     <row r="29" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="4">
-        <v>45471</v>
+        <v>45440</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="4"/>
@@ -4509,11 +4527,11 @@
     </row>
     <row r="30" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="4">
-        <v>45472</v>
+        <v>45441</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="4"/>
@@ -4523,11 +4541,11 @@
     </row>
     <row r="31" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="4">
-        <v>45473</v>
+        <v>45442</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
@@ -4536,10 +4554,12 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="str">
+      <c r="E32" s="4">
+        <v>45443</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>
